--- a/GOLD_indv_simian_df_090301.xlsx
+++ b/GOLD_indv_simian_df_090301.xlsx
@@ -1940,6127 +1940,6132 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L254"/>
+  <dimension ref="B1:M254"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
+      <c r="C1">
         <v>133</v>
       </c>
-      <c r="C1">
+      <c r="D1">
         <v>165</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>1</v>
       </c>
-      <c r="E1">
+      <c r="F1">
         <v>40</v>
       </c>
-      <c r="F1">
+      <c r="G1">
         <v>72</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>2</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>3</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>172</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>212</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>6</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>103</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>143</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>2</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>7</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>8</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
         <v>10</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>1</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>34</v>
       </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3">
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3">
         <v>124</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>157</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>2</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>12</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
         <v>14</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>1</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>54</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>15</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>115</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>168</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>2</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>16</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
         <v>18</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <v>1</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>19</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>19</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>43</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>61</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>2</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>16</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
         <v>21</v>
       </c>
-      <c r="B6">
+      <c r="C6">
         <v>150</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>187</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>22</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>532</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>569</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>2</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>16</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
         <v>24</v>
       </c>
-      <c r="B7">
+      <c r="C7">
         <v>1</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>19</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>25</v>
       </c>
-      <c r="E7">
-        <v>11</v>
-      </c>
       <c r="F7">
+        <v>11</v>
+      </c>
+      <c r="G7">
         <v>29</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>2</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>16</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
         <v>27</v>
       </c>
-      <c r="B8">
+      <c r="C8">
         <v>15</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>35</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>28</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>289</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>309</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>2</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>16</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>29</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
         <v>30</v>
       </c>
-      <c r="B9">
+      <c r="C9">
         <v>9</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>28</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>31</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>224</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>243</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>2</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>16</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
         <v>33</v>
       </c>
-      <c r="B10">
+      <c r="C10">
         <v>14</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>42</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>34</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>15</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>43</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>2</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>16</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>35</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
         <v>36</v>
       </c>
-      <c r="B11">
+      <c r="C11">
         <v>1</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>29</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>37</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>65</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>93</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>2</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>16</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
         <v>39</v>
       </c>
-      <c r="B12">
+      <c r="C12">
         <v>1</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>20</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>40</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>33</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>52</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>2</v>
       </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
         <v>16</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
         <v>42</v>
       </c>
-      <c r="B13">
+      <c r="C13">
         <v>1</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>20</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>43</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>4</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>23</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>2</v>
       </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
         <v>16</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
         <v>45</v>
       </c>
-      <c r="B14">
+      <c r="C14">
         <v>1</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>17</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>46</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>40</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>56</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>2</v>
       </c>
-      <c r="I14" t="s">
+      <c r="J14" t="s">
         <v>16</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
         <v>47</v>
       </c>
-      <c r="K14" t="s">
+      <c r="L14" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
         <v>49</v>
       </c>
-      <c r="B15">
+      <c r="C15">
         <v>1</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>16</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>50</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>7</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>22</v>
       </c>
-      <c r="H15" t="s">
+      <c r="I15" t="s">
         <v>2</v>
       </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
         <v>16</v>
       </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
         <v>51</v>
       </c>
-      <c r="K15" t="s">
+      <c r="L15" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
         <v>52</v>
       </c>
-      <c r="B16">
+      <c r="C16">
         <v>54</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>70</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>53</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>39</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>55</v>
       </c>
-      <c r="H16" t="s">
+      <c r="I16" t="s">
         <v>2</v>
       </c>
-      <c r="I16" t="s">
+      <c r="J16" t="s">
         <v>7</v>
       </c>
-      <c r="J16" t="s">
+      <c r="K16" t="s">
         <v>54</v>
       </c>
-      <c r="K16" t="s">
+      <c r="L16" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
         <v>55</v>
       </c>
-      <c r="B17">
-        <v>11</v>
-      </c>
       <c r="C17">
+        <v>11</v>
+      </c>
+      <c r="D17">
         <v>29</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>56</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>502</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>520</v>
       </c>
-      <c r="H17" t="s">
+      <c r="I17" t="s">
         <v>2</v>
       </c>
-      <c r="I17" t="s">
+      <c r="J17" t="s">
         <v>16</v>
       </c>
-      <c r="J17" t="s">
+      <c r="K17" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
         <v>58</v>
       </c>
-      <c r="B18">
+      <c r="C18">
         <v>27</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>42</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>59</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>25</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>40</v>
       </c>
-      <c r="H18" t="s">
+      <c r="I18" t="s">
         <v>2</v>
       </c>
-      <c r="I18" t="s">
+      <c r="J18" t="s">
         <v>16</v>
       </c>
-      <c r="J18" t="s">
+      <c r="K18" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
         <v>61</v>
       </c>
-      <c r="B19">
+      <c r="C19">
         <v>77</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>134</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>62</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>85</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>142</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>58</v>
       </c>
-      <c r="L19" t="s">
+      <c r="M19" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
         <v>63</v>
       </c>
-      <c r="B20">
-        <v>11</v>
-      </c>
       <c r="C20">
+        <v>11</v>
+      </c>
+      <c r="D20">
         <v>60</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>64</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>82</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>131</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>50</v>
       </c>
-      <c r="L20" t="s">
+      <c r="M20" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
         <v>65</v>
       </c>
-      <c r="B21">
+      <c r="C21">
         <v>82</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>103</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>66</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>122</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>142</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>21</v>
       </c>
-      <c r="L21" t="s">
+      <c r="M21" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
         <v>67</v>
       </c>
-      <c r="B22">
+      <c r="C22">
         <v>45</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>60</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
         <v>68</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>36</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>51</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>16</v>
       </c>
-      <c r="L22" t="s">
+      <c r="M22" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
         <v>69</v>
       </c>
-      <c r="B23">
+      <c r="C23">
         <v>5</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>20</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>70</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>8</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>23</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>16</v>
       </c>
-      <c r="L23" t="s">
+      <c r="M23" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
         <v>71</v>
       </c>
-      <c r="B24">
+      <c r="C24">
         <v>42</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>55</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
         <v>72</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>196</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>209</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>14</v>
       </c>
-      <c r="L24" t="s">
+      <c r="M24" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
         <v>73</v>
       </c>
-      <c r="B25">
+      <c r="C25">
         <v>36</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>49</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
         <v>74</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>34</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>47</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>14</v>
       </c>
-      <c r="L25" t="s">
+      <c r="M25" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
         <v>75</v>
       </c>
-      <c r="B26">
+      <c r="C26">
         <v>38</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>50</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
         <v>76</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>49</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>61</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>13</v>
       </c>
-      <c r="L26" t="s">
+      <c r="M26" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
         <v>77</v>
       </c>
-      <c r="B27">
+      <c r="C27">
         <v>12</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>24</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
         <v>78</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>49</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>61</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>13</v>
       </c>
-      <c r="L27" t="s">
+      <c r="M27" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
         <v>79</v>
       </c>
-      <c r="B28">
+      <c r="C28">
         <v>28</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>40</v>
       </c>
-      <c r="D28" t="s">
+      <c r="E28" t="s">
         <v>80</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>28</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>40</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>13</v>
       </c>
-      <c r="L28" t="s">
+      <c r="M28" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
         <v>81</v>
       </c>
-      <c r="B29">
+      <c r="C29">
         <v>51</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>63</v>
       </c>
-      <c r="D29" t="s">
+      <c r="E29" t="s">
         <v>82</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>48</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>60</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>13</v>
       </c>
-      <c r="L29" t="s">
+      <c r="M29" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
         <v>83</v>
       </c>
-      <c r="B30">
+      <c r="C30">
         <v>70</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>81</v>
       </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>84</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>323</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>334</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>12</v>
       </c>
-      <c r="L30" t="s">
+      <c r="M30" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
         <v>85</v>
       </c>
-      <c r="B31">
+      <c r="C31">
         <v>18</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>29</v>
       </c>
-      <c r="D31" t="s">
+      <c r="E31" t="s">
         <v>86</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>52</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>63</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>12</v>
       </c>
-      <c r="L31" t="s">
+      <c r="M31" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
         <v>87</v>
       </c>
-      <c r="B32">
+      <c r="C32">
         <v>17</v>
       </c>
-      <c r="C32">
+      <c r="D32">
         <v>28</v>
       </c>
-      <c r="D32" t="s">
+      <c r="E32" t="s">
         <v>88</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>21</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>32</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>12</v>
       </c>
-      <c r="L32" t="s">
+      <c r="M32" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
         <v>89</v>
       </c>
-      <c r="B33">
-        <v>11</v>
-      </c>
       <c r="C33">
+        <v>11</v>
+      </c>
+      <c r="D33">
         <v>22</v>
       </c>
-      <c r="D33" t="s">
+      <c r="E33" t="s">
         <v>90</v>
       </c>
-      <c r="E33">
+      <c r="F33">
         <v>78</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>89</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <v>12</v>
       </c>
-      <c r="L33" t="s">
+      <c r="M33" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
         <v>91</v>
       </c>
-      <c r="B34">
+      <c r="C34">
         <v>12</v>
       </c>
-      <c r="C34">
+      <c r="D34">
         <v>23</v>
       </c>
-      <c r="D34" t="s">
+      <c r="E34" t="s">
         <v>92</v>
       </c>
-      <c r="E34">
+      <c r="F34">
         <v>77</v>
       </c>
-      <c r="F34">
+      <c r="G34">
         <v>88</v>
       </c>
-      <c r="G34">
+      <c r="H34">
         <v>12</v>
       </c>
-      <c r="L34" t="s">
+      <c r="M34" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
         <v>93</v>
       </c>
-      <c r="B35">
+      <c r="C35">
         <v>18</v>
       </c>
-      <c r="C35">
+      <c r="D35">
         <v>29</v>
       </c>
-      <c r="D35" t="s">
+      <c r="E35" t="s">
         <v>94</v>
       </c>
-      <c r="E35">
+      <c r="F35">
         <v>134</v>
       </c>
-      <c r="F35">
+      <c r="G35">
         <v>145</v>
       </c>
-      <c r="G35">
+      <c r="H35">
         <v>12</v>
       </c>
-      <c r="L35" t="s">
+      <c r="M35" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
+    <row r="36" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
         <v>95</v>
       </c>
-      <c r="B36">
+      <c r="C36">
         <v>122</v>
       </c>
-      <c r="C36">
+      <c r="D36">
         <v>133</v>
       </c>
-      <c r="D36" t="s">
+      <c r="E36" t="s">
         <v>96</v>
       </c>
-      <c r="E36">
+      <c r="F36">
         <v>368</v>
       </c>
-      <c r="F36">
+      <c r="G36">
         <v>379</v>
       </c>
-      <c r="G36">
+      <c r="H36">
         <v>12</v>
       </c>
-      <c r="L36" t="s">
+      <c r="M36" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
         <v>97</v>
       </c>
-      <c r="B37">
-        <v>11</v>
-      </c>
       <c r="C37">
+        <v>11</v>
+      </c>
+      <c r="D37">
         <v>22</v>
       </c>
-      <c r="D37" t="s">
+      <c r="E37" t="s">
         <v>98</v>
       </c>
-      <c r="E37">
+      <c r="F37">
         <v>59</v>
       </c>
-      <c r="F37">
+      <c r="G37">
         <v>70</v>
       </c>
-      <c r="G37">
+      <c r="H37">
         <v>12</v>
       </c>
-      <c r="L37" t="s">
+      <c r="M37" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
         <v>99</v>
       </c>
-      <c r="B38">
+      <c r="C38">
         <v>50</v>
       </c>
-      <c r="C38">
+      <c r="D38">
         <v>61</v>
       </c>
-      <c r="D38" t="s">
+      <c r="E38" t="s">
         <v>100</v>
       </c>
-      <c r="E38">
+      <c r="F38">
         <v>156</v>
       </c>
-      <c r="F38">
+      <c r="G38">
         <v>167</v>
       </c>
-      <c r="G38">
+      <c r="H38">
         <v>12</v>
       </c>
-      <c r="L38" t="s">
+      <c r="M38" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B39" t="s">
         <v>101</v>
       </c>
-      <c r="B39">
+      <c r="C39">
         <v>8</v>
       </c>
-      <c r="C39">
+      <c r="D39">
         <v>19</v>
       </c>
-      <c r="D39" t="s">
+      <c r="E39" t="s">
         <v>102</v>
       </c>
-      <c r="E39">
+      <c r="F39">
         <v>76</v>
       </c>
-      <c r="F39">
+      <c r="G39">
         <v>87</v>
       </c>
-      <c r="G39">
+      <c r="H39">
         <v>12</v>
       </c>
-      <c r="L39" t="s">
+      <c r="M39" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B40" t="s">
         <v>103</v>
       </c>
-      <c r="B40">
+      <c r="C40">
         <v>20</v>
       </c>
-      <c r="C40">
+      <c r="D40">
         <v>31</v>
       </c>
-      <c r="D40" t="s">
+      <c r="E40" t="s">
         <v>104</v>
       </c>
-      <c r="E40">
+      <c r="F40">
         <v>19</v>
       </c>
-      <c r="F40">
+      <c r="G40">
         <v>30</v>
       </c>
-      <c r="G40">
+      <c r="H40">
         <v>12</v>
       </c>
-      <c r="L40" t="s">
+      <c r="M40" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B41" t="s">
         <v>105</v>
       </c>
-      <c r="B41">
-        <v>11</v>
-      </c>
       <c r="C41">
+        <v>11</v>
+      </c>
+      <c r="D41">
         <v>22</v>
       </c>
-      <c r="D41" t="s">
+      <c r="E41" t="s">
         <v>106</v>
       </c>
-      <c r="E41">
+      <c r="F41">
         <v>50</v>
       </c>
-      <c r="F41">
+      <c r="G41">
         <v>61</v>
       </c>
-      <c r="G41">
+      <c r="H41">
         <v>12</v>
       </c>
-      <c r="L41" t="s">
+      <c r="M41" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B42" t="s">
         <v>107</v>
       </c>
-      <c r="B42">
+      <c r="C42">
         <v>21</v>
       </c>
-      <c r="C42">
+      <c r="D42">
         <v>32</v>
       </c>
-      <c r="D42" t="s">
+      <c r="E42" t="s">
         <v>108</v>
       </c>
-      <c r="E42">
+      <c r="F42">
         <v>17</v>
       </c>
-      <c r="F42">
+      <c r="G42">
         <v>28</v>
       </c>
-      <c r="G42">
+      <c r="H42">
         <v>12</v>
       </c>
-      <c r="L42" t="s">
+      <c r="M42" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B43" t="s">
         <v>109</v>
       </c>
-      <c r="B43">
+      <c r="C43">
         <v>7</v>
       </c>
-      <c r="C43">
+      <c r="D43">
         <v>18</v>
       </c>
-      <c r="D43" t="s">
+      <c r="E43" t="s">
         <v>110</v>
       </c>
-      <c r="E43">
+      <c r="F43">
         <v>60</v>
       </c>
-      <c r="F43">
+      <c r="G43">
         <v>71</v>
       </c>
-      <c r="G43">
+      <c r="H43">
         <v>12</v>
       </c>
-      <c r="L43" t="s">
+      <c r="M43" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B44" t="s">
         <v>111</v>
       </c>
-      <c r="B44">
+      <c r="C44">
         <v>8</v>
       </c>
-      <c r="C44">
+      <c r="D44">
         <v>19</v>
       </c>
-      <c r="D44" t="s">
+      <c r="E44" t="s">
         <v>112</v>
       </c>
-      <c r="E44">
+      <c r="F44">
         <v>16</v>
       </c>
-      <c r="F44">
+      <c r="G44">
         <v>27</v>
       </c>
-      <c r="G44">
+      <c r="H44">
         <v>12</v>
       </c>
-      <c r="L44" t="s">
+      <c r="M44" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B45" t="s">
         <v>113</v>
       </c>
-      <c r="B45">
+      <c r="C45">
         <v>7</v>
       </c>
-      <c r="C45">
+      <c r="D45">
         <v>18</v>
       </c>
-      <c r="D45" t="s">
+      <c r="E45" t="s">
         <v>114</v>
       </c>
-      <c r="E45">
+      <c r="F45">
         <v>17</v>
       </c>
-      <c r="F45">
+      <c r="G45">
         <v>28</v>
       </c>
-      <c r="G45">
+      <c r="H45">
         <v>12</v>
       </c>
-      <c r="L45" t="s">
+      <c r="M45" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B46" t="s">
         <v>115</v>
       </c>
-      <c r="B46">
+      <c r="C46">
         <v>31</v>
       </c>
-      <c r="C46">
+      <c r="D46">
         <v>42</v>
       </c>
-      <c r="D46" t="s">
+      <c r="E46" t="s">
         <v>116</v>
       </c>
-      <c r="E46">
+      <c r="F46">
         <v>22</v>
       </c>
-      <c r="F46">
+      <c r="G46">
         <v>33</v>
       </c>
-      <c r="G46">
+      <c r="H46">
         <v>12</v>
       </c>
-      <c r="L46" t="s">
+      <c r="M46" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B47" t="s">
         <v>117</v>
       </c>
-      <c r="B47">
+      <c r="C47">
         <v>20</v>
       </c>
-      <c r="C47">
+      <c r="D47">
         <v>31</v>
       </c>
-      <c r="D47" t="s">
+      <c r="E47" t="s">
         <v>118</v>
       </c>
-      <c r="E47">
+      <c r="F47">
         <v>48</v>
       </c>
-      <c r="F47">
+      <c r="G47">
         <v>59</v>
       </c>
-      <c r="G47">
+      <c r="H47">
         <v>12</v>
       </c>
-      <c r="L47" t="s">
+      <c r="M47" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B48" t="s">
         <v>119</v>
       </c>
-      <c r="B48">
+      <c r="C48">
         <v>1</v>
       </c>
-      <c r="C48">
+      <c r="D48">
         <v>12</v>
       </c>
-      <c r="D48" t="s">
+      <c r="E48" t="s">
         <v>120</v>
       </c>
-      <c r="E48">
+      <c r="F48">
         <v>538</v>
       </c>
-      <c r="F48">
+      <c r="G48">
         <v>549</v>
       </c>
-      <c r="G48">
+      <c r="H48">
         <v>12</v>
       </c>
-      <c r="L48" t="s">
+      <c r="M48" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
+    <row r="49" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B49" t="s">
         <v>121</v>
       </c>
-      <c r="B49">
+      <c r="C49">
         <v>43</v>
       </c>
-      <c r="C49">
+      <c r="D49">
         <v>54</v>
       </c>
-      <c r="D49" t="s">
+      <c r="E49" t="s">
         <v>122</v>
       </c>
-      <c r="E49">
+      <c r="F49">
         <v>36</v>
       </c>
-      <c r="F49">
+      <c r="G49">
         <v>47</v>
       </c>
-      <c r="G49">
+      <c r="H49">
         <v>12</v>
       </c>
-      <c r="L49" t="s">
+      <c r="M49" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
+    <row r="50" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B50" t="s">
         <v>123</v>
       </c>
-      <c r="B50">
+      <c r="C50">
         <v>13</v>
       </c>
-      <c r="C50">
+      <c r="D50">
         <v>24</v>
       </c>
-      <c r="D50" t="s">
+      <c r="E50" t="s">
         <v>124</v>
       </c>
-      <c r="E50">
+      <c r="F50">
         <v>35</v>
       </c>
-      <c r="F50">
+      <c r="G50">
         <v>46</v>
       </c>
-      <c r="G50">
+      <c r="H50">
         <v>12</v>
       </c>
-      <c r="L50" t="s">
+      <c r="M50" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
+    <row r="51" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B51" t="s">
         <v>125</v>
       </c>
-      <c r="B51">
+      <c r="C51">
         <v>10</v>
       </c>
-      <c r="C51">
+      <c r="D51">
         <v>20</v>
       </c>
-      <c r="D51" t="s">
+      <c r="E51" t="s">
         <v>126</v>
       </c>
-      <c r="E51">
+      <c r="F51">
         <v>68</v>
       </c>
-      <c r="F51">
+      <c r="G51">
         <v>78</v>
       </c>
-      <c r="G51">
-        <v>11</v>
-      </c>
-      <c r="L51" t="s">
+      <c r="H51">
+        <v>11</v>
+      </c>
+      <c r="M51" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
+    <row r="52" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B52" t="s">
         <v>127</v>
       </c>
-      <c r="B52">
+      <c r="C52">
         <v>24</v>
       </c>
-      <c r="C52">
+      <c r="D52">
         <v>34</v>
       </c>
-      <c r="D52" t="s">
+      <c r="E52" t="s">
         <v>128</v>
       </c>
-      <c r="E52">
+      <c r="F52">
         <v>27</v>
       </c>
-      <c r="F52">
+      <c r="G52">
         <v>37</v>
       </c>
-      <c r="G52">
-        <v>11</v>
-      </c>
-      <c r="L52" t="s">
+      <c r="H52">
+        <v>11</v>
+      </c>
+      <c r="M52" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
+    <row r="53" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B53" t="s">
         <v>129</v>
       </c>
-      <c r="B53">
+      <c r="C53">
         <v>75</v>
       </c>
-      <c r="C53">
+      <c r="D53">
         <v>85</v>
       </c>
-      <c r="D53" t="s">
+      <c r="E53" t="s">
         <v>130</v>
       </c>
-      <c r="E53">
+      <c r="F53">
         <v>61</v>
       </c>
-      <c r="F53">
+      <c r="G53">
         <v>71</v>
       </c>
-      <c r="G53">
-        <v>11</v>
-      </c>
-      <c r="L53" t="s">
+      <c r="H53">
+        <v>11</v>
+      </c>
+      <c r="M53" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
+    <row r="54" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B54" t="s">
         <v>131</v>
       </c>
-      <c r="B54">
+      <c r="C54">
         <v>1</v>
       </c>
-      <c r="C54">
-        <v>11</v>
-      </c>
-      <c r="D54" t="s">
+      <c r="D54">
+        <v>11</v>
+      </c>
+      <c r="E54" t="s">
         <v>132</v>
       </c>
-      <c r="E54">
+      <c r="F54">
         <v>223</v>
       </c>
-      <c r="F54">
+      <c r="G54">
         <v>233</v>
       </c>
-      <c r="G54">
-        <v>11</v>
-      </c>
-      <c r="L54" t="s">
+      <c r="H54">
+        <v>11</v>
+      </c>
+      <c r="M54" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
+    <row r="55" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B55" t="s">
         <v>133</v>
       </c>
-      <c r="B55">
+      <c r="C55">
         <v>70</v>
       </c>
-      <c r="C55">
+      <c r="D55">
         <v>80</v>
       </c>
-      <c r="D55" t="s">
+      <c r="E55" t="s">
         <v>134</v>
       </c>
-      <c r="E55">
+      <c r="F55">
         <v>8</v>
       </c>
-      <c r="F55">
+      <c r="G55">
         <v>18</v>
       </c>
-      <c r="G55">
-        <v>11</v>
-      </c>
-      <c r="L55" t="s">
+      <c r="H55">
+        <v>11</v>
+      </c>
+      <c r="M55" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
+    <row r="56" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B56" t="s">
         <v>135</v>
       </c>
-      <c r="B56">
+      <c r="C56">
         <v>16</v>
       </c>
-      <c r="C56">
+      <c r="D56">
         <v>26</v>
       </c>
-      <c r="D56" t="s">
+      <c r="E56" t="s">
         <v>136</v>
       </c>
-      <c r="E56">
+      <c r="F56">
         <v>46</v>
       </c>
-      <c r="F56">
+      <c r="G56">
         <v>56</v>
       </c>
-      <c r="G56">
-        <v>11</v>
-      </c>
-      <c r="L56" t="s">
+      <c r="H56">
+        <v>11</v>
+      </c>
+      <c r="M56" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
+    <row r="57" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B57" t="s">
         <v>137</v>
       </c>
-      <c r="B57">
+      <c r="C57">
         <v>21</v>
       </c>
-      <c r="C57">
+      <c r="D57">
         <v>31</v>
       </c>
-      <c r="D57" t="s">
+      <c r="E57" t="s">
         <v>138</v>
       </c>
-      <c r="E57">
+      <c r="F57">
         <v>22</v>
       </c>
-      <c r="F57">
+      <c r="G57">
         <v>32</v>
       </c>
-      <c r="G57">
-        <v>11</v>
-      </c>
-      <c r="L57" t="s">
+      <c r="H57">
+        <v>11</v>
+      </c>
+      <c r="M57" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
+    <row r="58" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B58" t="s">
         <v>139</v>
       </c>
-      <c r="B58">
+      <c r="C58">
         <v>10</v>
       </c>
-      <c r="C58">
+      <c r="D58">
         <v>20</v>
       </c>
-      <c r="D58" t="s">
+      <c r="E58" t="s">
         <v>140</v>
       </c>
-      <c r="E58">
+      <c r="F58">
         <v>21</v>
       </c>
-      <c r="F58">
+      <c r="G58">
         <v>31</v>
       </c>
-      <c r="G58">
-        <v>11</v>
-      </c>
-      <c r="L58" t="s">
+      <c r="H58">
+        <v>11</v>
+      </c>
+      <c r="M58" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
+    <row r="59" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B59" t="s">
         <v>141</v>
       </c>
-      <c r="B59">
+      <c r="C59">
         <v>7</v>
       </c>
-      <c r="C59">
+      <c r="D59">
         <v>16</v>
       </c>
-      <c r="D59" t="s">
+      <c r="E59" t="s">
         <v>142</v>
       </c>
-      <c r="E59">
+      <c r="F59">
         <v>42</v>
       </c>
-      <c r="F59">
+      <c r="G59">
         <v>51</v>
       </c>
-      <c r="G59">
+      <c r="H59">
         <v>10</v>
       </c>
-      <c r="L59" t="s">
+      <c r="M59" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
+    <row r="60" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B60" t="s">
         <v>143</v>
       </c>
-      <c r="B60">
+      <c r="C60">
         <v>22</v>
       </c>
-      <c r="C60">
+      <c r="D60">
         <v>31</v>
       </c>
-      <c r="D60" t="s">
+      <c r="E60" t="s">
         <v>144</v>
       </c>
-      <c r="E60">
+      <c r="F60">
         <v>70</v>
       </c>
-      <c r="F60">
+      <c r="G60">
         <v>79</v>
       </c>
-      <c r="G60">
+      <c r="H60">
         <v>10</v>
       </c>
-      <c r="L60" t="s">
+      <c r="M60" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
+    <row r="61" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B61" t="s">
         <v>145</v>
       </c>
-      <c r="B61">
-        <v>11</v>
-      </c>
       <c r="C61">
+        <v>11</v>
+      </c>
+      <c r="D61">
         <v>20</v>
       </c>
-      <c r="D61" t="s">
+      <c r="E61" t="s">
         <v>146</v>
       </c>
-      <c r="E61">
+      <c r="F61">
         <v>116</v>
       </c>
-      <c r="F61">
+      <c r="G61">
         <v>125</v>
       </c>
-      <c r="G61">
+      <c r="H61">
         <v>10</v>
       </c>
-      <c r="L61" t="s">
+      <c r="M61" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
+    <row r="62" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B62" t="s">
         <v>147</v>
       </c>
-      <c r="B62">
+      <c r="C62">
         <v>14</v>
       </c>
-      <c r="C62">
+      <c r="D62">
         <v>23</v>
       </c>
-      <c r="D62" t="s">
+      <c r="E62" t="s">
         <v>148</v>
       </c>
-      <c r="E62">
+      <c r="F62">
         <v>28</v>
       </c>
-      <c r="F62">
+      <c r="G62">
         <v>37</v>
       </c>
-      <c r="G62">
+      <c r="H62">
         <v>10</v>
       </c>
-      <c r="L62" t="s">
+      <c r="M62" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
+    <row r="63" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B63" t="s">
         <v>149</v>
       </c>
-      <c r="B63">
+      <c r="C63">
         <v>1</v>
       </c>
-      <c r="C63">
+      <c r="D63">
         <v>10</v>
       </c>
-      <c r="D63" t="s">
+      <c r="E63" t="s">
         <v>150</v>
       </c>
-      <c r="E63">
+      <c r="F63">
         <v>51</v>
       </c>
-      <c r="F63">
+      <c r="G63">
         <v>60</v>
       </c>
-      <c r="G63">
+      <c r="H63">
         <v>10</v>
       </c>
-      <c r="L63" t="s">
+      <c r="M63" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
+    <row r="64" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B64" t="s">
         <v>151</v>
       </c>
-      <c r="B64">
+      <c r="C64">
         <v>77</v>
       </c>
-      <c r="C64">
+      <c r="D64">
         <v>86</v>
       </c>
-      <c r="D64" t="s">
+      <c r="E64" t="s">
         <v>152</v>
       </c>
-      <c r="E64">
+      <c r="F64">
         <v>201</v>
       </c>
-      <c r="F64">
+      <c r="G64">
         <v>210</v>
       </c>
-      <c r="G64">
+      <c r="H64">
         <v>10</v>
       </c>
-      <c r="L64" t="s">
+      <c r="M64" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B65" t="s">
         <v>153</v>
       </c>
-      <c r="B65">
+      <c r="C65">
         <v>6</v>
       </c>
-      <c r="C65">
+      <c r="D65">
         <v>15</v>
       </c>
-      <c r="D65" t="s">
+      <c r="E65" t="s">
         <v>154</v>
       </c>
-      <c r="E65">
+      <c r="F65">
         <v>48</v>
       </c>
-      <c r="F65">
+      <c r="G65">
         <v>57</v>
       </c>
-      <c r="G65">
+      <c r="H65">
         <v>10</v>
       </c>
-      <c r="L65" t="s">
+      <c r="M65" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B66" t="s">
         <v>155</v>
       </c>
-      <c r="B66">
-        <v>11</v>
-      </c>
       <c r="C66">
+        <v>11</v>
+      </c>
+      <c r="D66">
         <v>20</v>
       </c>
-      <c r="D66" t="s">
+      <c r="E66" t="s">
         <v>156</v>
       </c>
-      <c r="E66">
+      <c r="F66">
         <v>44</v>
       </c>
-      <c r="F66">
+      <c r="G66">
         <v>53</v>
       </c>
-      <c r="G66">
+      <c r="H66">
         <v>10</v>
       </c>
-      <c r="L66" t="s">
+      <c r="M66" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B67" t="s">
         <v>157</v>
       </c>
-      <c r="B67">
+      <c r="C67">
         <v>12</v>
       </c>
-      <c r="C67">
+      <c r="D67">
         <v>21</v>
       </c>
-      <c r="D67" t="s">
+      <c r="E67" t="s">
         <v>158</v>
       </c>
-      <c r="E67">
+      <c r="F67">
         <v>23</v>
       </c>
-      <c r="F67">
+      <c r="G67">
         <v>32</v>
       </c>
-      <c r="G67">
+      <c r="H67">
         <v>10</v>
       </c>
-      <c r="L67" t="s">
+      <c r="M67" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B68" t="s">
         <v>159</v>
       </c>
-      <c r="B68">
+      <c r="C68">
         <v>1</v>
       </c>
-      <c r="C68">
+      <c r="D68">
         <v>10</v>
       </c>
-      <c r="D68" t="s">
+      <c r="E68" t="s">
         <v>160</v>
       </c>
-      <c r="E68">
+      <c r="F68">
         <v>55</v>
       </c>
-      <c r="F68">
+      <c r="G68">
         <v>64</v>
       </c>
-      <c r="G68">
+      <c r="H68">
         <v>10</v>
       </c>
-      <c r="L68" t="s">
+      <c r="M68" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B69" t="s">
         <v>161</v>
       </c>
-      <c r="B69">
+      <c r="C69">
         <v>1</v>
       </c>
-      <c r="C69">
+      <c r="D69">
         <v>20</v>
       </c>
-      <c r="D69" t="s">
+      <c r="E69" t="s">
         <v>162</v>
       </c>
-      <c r="E69">
+      <c r="F69">
         <v>1221</v>
       </c>
-      <c r="F69">
+      <c r="G69">
         <v>1240</v>
       </c>
-      <c r="G69">
+      <c r="H69">
         <v>20</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B70" t="s">
         <v>163</v>
       </c>
-      <c r="B70">
+      <c r="C70">
         <v>4</v>
       </c>
-      <c r="C70">
+      <c r="D70">
         <v>19</v>
       </c>
-      <c r="D70" t="s">
+      <c r="E70" t="s">
         <v>164</v>
       </c>
-      <c r="E70">
+      <c r="F70">
         <v>15</v>
       </c>
-      <c r="F70">
+      <c r="G70">
         <v>30</v>
       </c>
-      <c r="G70">
+      <c r="H70">
         <v>16</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B71" t="s">
         <v>165</v>
       </c>
-      <c r="B71">
+      <c r="C71">
         <v>1</v>
       </c>
-      <c r="C71">
+      <c r="D71">
         <v>16</v>
       </c>
-      <c r="D71" t="s">
+      <c r="E71" t="s">
         <v>166</v>
       </c>
-      <c r="E71">
+      <c r="F71">
         <v>1</v>
-      </c>
-      <c r="F71">
-        <v>16</v>
       </c>
       <c r="G71">
         <v>16</v>
       </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
+      <c r="H71">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B72" t="s">
         <v>167</v>
       </c>
-      <c r="B72">
+      <c r="C72">
         <v>25</v>
       </c>
-      <c r="C72">
+      <c r="D72">
         <v>40</v>
       </c>
-      <c r="D72" t="s">
+      <c r="E72" t="s">
         <v>168</v>
       </c>
-      <c r="E72">
+      <c r="F72">
         <v>161</v>
       </c>
-      <c r="F72">
+      <c r="G72">
         <v>176</v>
       </c>
-      <c r="G72">
+      <c r="H72">
         <v>16</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B73" t="s">
         <v>169</v>
       </c>
-      <c r="B73">
+      <c r="C73">
         <v>27</v>
       </c>
-      <c r="C73">
+      <c r="D73">
         <v>40</v>
       </c>
-      <c r="D73" t="s">
+      <c r="E73" t="s">
         <v>170</v>
       </c>
-      <c r="E73">
+      <c r="F73">
         <v>56</v>
       </c>
-      <c r="F73">
+      <c r="G73">
         <v>69</v>
       </c>
-      <c r="G73">
+      <c r="H73">
         <v>14</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B74" t="s">
         <v>171</v>
       </c>
-      <c r="B74">
+      <c r="C74">
         <v>1</v>
       </c>
-      <c r="C74">
+      <c r="D74">
         <v>14</v>
       </c>
-      <c r="D74" t="s">
+      <c r="E74" t="s">
         <v>172</v>
       </c>
-      <c r="E74">
+      <c r="F74">
         <v>556</v>
       </c>
-      <c r="F74">
+      <c r="G74">
         <v>569</v>
       </c>
-      <c r="G74">
+      <c r="H74">
         <v>14</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B75" t="s">
         <v>173</v>
       </c>
-      <c r="B75">
+      <c r="C75">
         <v>7</v>
       </c>
-      <c r="C75">
+      <c r="D75">
         <v>20</v>
       </c>
-      <c r="D75" t="s">
+      <c r="E75" t="s">
         <v>174</v>
       </c>
-      <c r="E75">
+      <c r="F75">
         <v>14</v>
       </c>
-      <c r="F75">
+      <c r="G75">
         <v>27</v>
       </c>
-      <c r="G75">
+      <c r="H75">
         <v>14</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B76" t="s">
         <v>175</v>
       </c>
-      <c r="B76">
+      <c r="C76">
         <v>1</v>
       </c>
-      <c r="C76">
+      <c r="D76">
         <v>14</v>
       </c>
-      <c r="D76" t="s">
+      <c r="E76" t="s">
         <v>176</v>
       </c>
-      <c r="E76">
+      <c r="F76">
         <v>47</v>
       </c>
-      <c r="F76">
+      <c r="G76">
         <v>60</v>
       </c>
-      <c r="G76">
+      <c r="H76">
         <v>14</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B77" t="s">
         <v>177</v>
       </c>
-      <c r="B77">
+      <c r="C77">
         <v>29</v>
       </c>
-      <c r="C77">
+      <c r="D77">
         <v>42</v>
       </c>
-      <c r="D77" t="s">
+      <c r="E77" t="s">
         <v>178</v>
       </c>
-      <c r="E77">
+      <c r="F77">
         <v>39</v>
       </c>
-      <c r="F77">
+      <c r="G77">
         <v>52</v>
       </c>
-      <c r="G77">
+      <c r="H77">
         <v>14</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
+    <row r="78" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B78" t="s">
         <v>179</v>
       </c>
-      <c r="B78">
+      <c r="C78">
         <v>1</v>
       </c>
-      <c r="C78">
+      <c r="D78">
         <v>13</v>
       </c>
-      <c r="D78" t="s">
+      <c r="E78" t="s">
         <v>180</v>
       </c>
-      <c r="E78">
+      <c r="F78">
         <v>18</v>
       </c>
-      <c r="F78">
+      <c r="G78">
         <v>30</v>
       </c>
-      <c r="G78">
+      <c r="H78">
         <v>13</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B79" t="s">
         <v>181</v>
       </c>
-      <c r="B79">
+      <c r="C79">
         <v>2</v>
       </c>
-      <c r="C79">
+      <c r="D79">
         <v>14</v>
       </c>
-      <c r="D79" t="s">
+      <c r="E79" t="s">
         <v>182</v>
       </c>
-      <c r="E79">
+      <c r="F79">
         <v>488</v>
       </c>
-      <c r="F79">
+      <c r="G79">
         <v>500</v>
       </c>
-      <c r="G79">
+      <c r="H79">
         <v>13</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B80" t="s">
         <v>183</v>
       </c>
-      <c r="B80">
+      <c r="C80">
         <v>7</v>
       </c>
-      <c r="C80">
+      <c r="D80">
         <v>19</v>
       </c>
-      <c r="D80" t="s">
+      <c r="E80" t="s">
         <v>184</v>
       </c>
-      <c r="E80">
-        <v>11</v>
-      </c>
       <c r="F80">
+        <v>11</v>
+      </c>
+      <c r="G80">
         <v>23</v>
       </c>
-      <c r="G80">
+      <c r="H80">
         <v>13</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
+    <row r="81" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B81" t="s">
         <v>185</v>
       </c>
-      <c r="B81">
+      <c r="C81">
         <v>59</v>
       </c>
-      <c r="C81">
+      <c r="D81">
         <v>71</v>
       </c>
-      <c r="D81" t="s">
+      <c r="E81" t="s">
         <v>186</v>
       </c>
-      <c r="E81">
+      <c r="F81">
         <v>26</v>
       </c>
-      <c r="F81">
+      <c r="G81">
         <v>38</v>
       </c>
-      <c r="G81">
+      <c r="H81">
         <v>13</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
+    <row r="82" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B82" t="s">
         <v>187</v>
       </c>
-      <c r="B82">
+      <c r="C82">
         <v>73</v>
       </c>
-      <c r="C82">
+      <c r="D82">
         <v>85</v>
       </c>
-      <c r="D82" t="s">
+      <c r="E82" t="s">
         <v>188</v>
       </c>
-      <c r="E82">
+      <c r="F82">
         <v>44</v>
       </c>
-      <c r="F82">
+      <c r="G82">
         <v>56</v>
       </c>
-      <c r="G82">
+      <c r="H82">
         <v>13</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
+    <row r="83" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B83" t="s">
         <v>189</v>
       </c>
-      <c r="B83">
+      <c r="C83">
         <v>2</v>
       </c>
-      <c r="C83">
+      <c r="D83">
         <v>14</v>
       </c>
-      <c r="D83" t="s">
+      <c r="E83" t="s">
         <v>190</v>
       </c>
-      <c r="E83">
+      <c r="F83">
         <v>3</v>
       </c>
-      <c r="F83">
+      <c r="G83">
         <v>15</v>
       </c>
-      <c r="G83">
+      <c r="H83">
         <v>13</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
+    <row r="84" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B84" t="s">
         <v>191</v>
       </c>
-      <c r="B84">
+      <c r="C84">
         <v>2</v>
       </c>
-      <c r="C84">
+      <c r="D84">
         <v>14</v>
       </c>
-      <c r="D84" t="s">
+      <c r="E84" t="s">
         <v>192</v>
       </c>
-      <c r="E84">
+      <c r="F84">
         <v>3</v>
       </c>
-      <c r="F84">
+      <c r="G84">
         <v>15</v>
       </c>
-      <c r="G84">
+      <c r="H84">
         <v>13</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
+    <row r="85" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B85" t="s">
         <v>193</v>
       </c>
-      <c r="B85">
+      <c r="C85">
         <v>34</v>
       </c>
-      <c r="C85">
+      <c r="D85">
         <v>46</v>
       </c>
-      <c r="D85" t="s">
+      <c r="E85" t="s">
         <v>194</v>
       </c>
-      <c r="E85">
+      <c r="F85">
         <v>3</v>
       </c>
-      <c r="F85">
+      <c r="G85">
         <v>15</v>
       </c>
-      <c r="G85">
+      <c r="H85">
         <v>13</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
+    <row r="86" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B86" t="s">
         <v>195</v>
       </c>
-      <c r="B86">
+      <c r="C86">
         <v>1</v>
       </c>
-      <c r="C86">
+      <c r="D86">
         <v>13</v>
       </c>
-      <c r="D86" t="s">
+      <c r="E86" t="s">
         <v>196</v>
       </c>
-      <c r="E86">
+      <c r="F86">
         <v>78</v>
       </c>
-      <c r="F86">
+      <c r="G86">
         <v>90</v>
       </c>
-      <c r="G86">
+      <c r="H86">
         <v>13</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
+    <row r="87" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B87" t="s">
         <v>197</v>
       </c>
-      <c r="B87">
+      <c r="C87">
         <v>6</v>
       </c>
-      <c r="C87">
+      <c r="D87">
         <v>17</v>
       </c>
-      <c r="D87" t="s">
+      <c r="E87" t="s">
         <v>198</v>
       </c>
-      <c r="E87">
+      <c r="F87">
         <v>32</v>
       </c>
-      <c r="F87">
+      <c r="G87">
         <v>43</v>
       </c>
-      <c r="G87">
+      <c r="H87">
         <v>12</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
+    <row r="88" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B88" t="s">
         <v>199</v>
       </c>
-      <c r="B88">
+      <c r="C88">
         <v>7</v>
       </c>
-      <c r="C88">
+      <c r="D88">
         <v>18</v>
       </c>
-      <c r="D88" t="s">
+      <c r="E88" t="s">
         <v>200</v>
       </c>
-      <c r="E88">
+      <c r="F88">
         <v>44</v>
       </c>
-      <c r="F88">
+      <c r="G88">
         <v>55</v>
       </c>
-      <c r="G88">
+      <c r="H88">
         <v>12</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
+    <row r="89" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B89" t="s">
         <v>201</v>
       </c>
-      <c r="B89">
+      <c r="C89">
         <v>14</v>
       </c>
-      <c r="C89">
+      <c r="D89">
         <v>25</v>
       </c>
-      <c r="D89" t="s">
+      <c r="E89" t="s">
         <v>202</v>
       </c>
-      <c r="E89">
+      <c r="F89">
         <v>59</v>
       </c>
-      <c r="F89">
+      <c r="G89">
         <v>70</v>
       </c>
-      <c r="G89">
+      <c r="H89">
         <v>12</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A90" t="s">
+    <row r="90" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B90" t="s">
         <v>203</v>
       </c>
-      <c r="B90">
+      <c r="C90">
         <v>6</v>
       </c>
-      <c r="C90">
+      <c r="D90">
         <v>17</v>
       </c>
-      <c r="D90" t="s">
+      <c r="E90" t="s">
         <v>204</v>
       </c>
-      <c r="E90">
+      <c r="F90">
         <v>74</v>
       </c>
-      <c r="F90">
+      <c r="G90">
         <v>85</v>
       </c>
-      <c r="G90">
+      <c r="H90">
         <v>12</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
+    <row r="91" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B91" t="s">
         <v>205</v>
       </c>
-      <c r="B91">
+      <c r="C91">
         <v>2</v>
       </c>
-      <c r="C91">
+      <c r="D91">
         <v>13</v>
       </c>
-      <c r="D91" t="s">
+      <c r="E91" t="s">
         <v>206</v>
       </c>
-      <c r="E91">
+      <c r="F91">
         <v>244</v>
       </c>
-      <c r="F91">
+      <c r="G91">
         <v>255</v>
       </c>
-      <c r="G91">
+      <c r="H91">
         <v>12</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A92" t="s">
+    <row r="92" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B92" t="s">
         <v>207</v>
       </c>
-      <c r="B92">
+      <c r="C92">
         <v>7</v>
       </c>
-      <c r="C92">
+      <c r="D92">
         <v>18</v>
       </c>
-      <c r="D92" t="s">
+      <c r="E92" t="s">
         <v>208</v>
       </c>
-      <c r="E92">
+      <c r="F92">
         <v>34</v>
       </c>
-      <c r="F92">
+      <c r="G92">
         <v>45</v>
       </c>
-      <c r="G92">
+      <c r="H92">
         <v>12</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
+    <row r="93" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B93" t="s">
         <v>209</v>
       </c>
-      <c r="B93">
+      <c r="C93">
         <v>8</v>
       </c>
-      <c r="C93">
+      <c r="D93">
         <v>19</v>
       </c>
-      <c r="D93" t="s">
+      <c r="E93" t="s">
         <v>210</v>
       </c>
-      <c r="E93">
+      <c r="F93">
         <v>31</v>
       </c>
-      <c r="F93">
+      <c r="G93">
         <v>42</v>
       </c>
-      <c r="G93">
+      <c r="H93">
         <v>12</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A94" t="s">
+    <row r="94" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B94" t="s">
         <v>211</v>
       </c>
-      <c r="B94">
+      <c r="C94">
         <v>6</v>
       </c>
-      <c r="C94">
+      <c r="D94">
         <v>17</v>
       </c>
-      <c r="D94" t="s">
+      <c r="E94" t="s">
         <v>212</v>
       </c>
-      <c r="E94">
+      <c r="F94">
         <v>170</v>
       </c>
-      <c r="F94">
+      <c r="G94">
         <v>181</v>
       </c>
-      <c r="G94">
+      <c r="H94">
         <v>12</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A95" t="s">
+    <row r="95" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B95" t="s">
         <v>213</v>
       </c>
-      <c r="B95">
+      <c r="C95">
         <v>6</v>
       </c>
-      <c r="C95">
+      <c r="D95">
         <v>17</v>
       </c>
-      <c r="D95" t="s">
+      <c r="E95" t="s">
         <v>214</v>
       </c>
-      <c r="E95">
+      <c r="F95">
         <v>26</v>
       </c>
-      <c r="F95">
+      <c r="G95">
         <v>37</v>
       </c>
-      <c r="G95">
+      <c r="H95">
         <v>12</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A96" t="s">
+    <row r="96" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B96" t="s">
         <v>215</v>
       </c>
-      <c r="B96">
+      <c r="C96">
         <v>1</v>
       </c>
-      <c r="C96">
+      <c r="D96">
         <v>12</v>
       </c>
-      <c r="D96" t="s">
+      <c r="E96" t="s">
         <v>216</v>
       </c>
-      <c r="E96">
+      <c r="F96">
         <v>1</v>
-      </c>
-      <c r="F96">
-        <v>12</v>
       </c>
       <c r="G96">
         <v>12</v>
       </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A97" t="s">
+      <c r="H96">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="97" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B97" t="s">
         <v>217</v>
       </c>
-      <c r="B97">
+      <c r="C97">
         <v>94</v>
       </c>
-      <c r="C97">
+      <c r="D97">
         <v>105</v>
       </c>
-      <c r="D97" t="s">
+      <c r="E97" t="s">
         <v>218</v>
       </c>
-      <c r="E97">
+      <c r="F97">
         <v>230</v>
       </c>
-      <c r="F97">
+      <c r="G97">
         <v>241</v>
       </c>
-      <c r="G97">
+      <c r="H97">
         <v>12</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A98" t="s">
+    <row r="98" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B98" t="s">
         <v>219</v>
       </c>
-      <c r="B98">
+      <c r="C98">
         <v>9</v>
       </c>
-      <c r="C98">
+      <c r="D98">
         <v>20</v>
       </c>
-      <c r="D98" t="s">
+      <c r="E98" t="s">
         <v>220</v>
       </c>
-      <c r="E98">
+      <c r="F98">
         <v>59</v>
       </c>
-      <c r="F98">
+      <c r="G98">
         <v>70</v>
       </c>
-      <c r="G98">
+      <c r="H98">
         <v>12</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A99" t="s">
+    <row r="99" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B99" t="s">
         <v>221</v>
       </c>
-      <c r="B99">
+      <c r="C99">
         <v>19</v>
       </c>
-      <c r="C99">
+      <c r="D99">
         <v>30</v>
       </c>
-      <c r="D99" t="s">
+      <c r="E99" t="s">
         <v>222</v>
       </c>
-      <c r="E99">
+      <c r="F99">
         <v>64</v>
       </c>
-      <c r="F99">
+      <c r="G99">
         <v>75</v>
       </c>
-      <c r="G99">
+      <c r="H99">
         <v>12</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A100" t="s">
+    <row r="100" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B100" t="s">
         <v>223</v>
       </c>
-      <c r="B100">
+      <c r="C100">
         <v>7</v>
       </c>
-      <c r="C100">
+      <c r="D100">
         <v>18</v>
       </c>
-      <c r="D100" t="s">
+      <c r="E100" t="s">
         <v>224</v>
       </c>
-      <c r="E100">
+      <c r="F100">
         <v>7</v>
       </c>
-      <c r="F100">
+      <c r="G100">
         <v>18</v>
       </c>
-      <c r="G100">
+      <c r="H100">
         <v>12</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A101" t="s">
+    <row r="101" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B101" t="s">
         <v>225</v>
       </c>
-      <c r="B101">
+      <c r="C101">
         <v>13</v>
       </c>
-      <c r="C101">
+      <c r="D101">
         <v>24</v>
       </c>
-      <c r="D101" t="s">
+      <c r="E101" t="s">
         <v>226</v>
       </c>
-      <c r="E101">
+      <c r="F101">
         <v>387</v>
       </c>
-      <c r="F101">
+      <c r="G101">
         <v>398</v>
       </c>
-      <c r="G101">
+      <c r="H101">
         <v>12</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A102" t="s">
+    <row r="102" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B102" t="s">
         <v>227</v>
       </c>
-      <c r="B102">
+      <c r="C102">
         <v>4</v>
       </c>
-      <c r="C102">
+      <c r="D102">
         <v>14</v>
       </c>
-      <c r="D102" t="s">
+      <c r="E102" t="s">
         <v>228</v>
       </c>
-      <c r="E102">
+      <c r="F102">
         <v>19</v>
       </c>
-      <c r="F102">
+      <c r="G102">
         <v>29</v>
       </c>
-      <c r="G102">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A103" t="s">
+      <c r="H102">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="103" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B103" t="s">
         <v>229</v>
       </c>
-      <c r="B103">
+      <c r="C103">
         <v>10</v>
       </c>
-      <c r="C103">
+      <c r="D103">
         <v>20</v>
       </c>
-      <c r="D103" t="s">
+      <c r="E103" t="s">
         <v>230</v>
       </c>
-      <c r="E103">
+      <c r="F103">
         <v>20</v>
       </c>
-      <c r="F103">
+      <c r="G103">
         <v>30</v>
       </c>
-      <c r="G103">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A104" t="s">
+      <c r="H103">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="104" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B104" t="s">
         <v>231</v>
       </c>
-      <c r="B104">
+      <c r="C104">
         <v>7</v>
       </c>
-      <c r="C104">
+      <c r="D104">
         <v>17</v>
       </c>
-      <c r="D104" t="s">
+      <c r="E104" t="s">
         <v>232</v>
       </c>
-      <c r="E104">
+      <c r="F104">
         <v>5</v>
       </c>
-      <c r="F104">
+      <c r="G104">
         <v>15</v>
       </c>
-      <c r="G104">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A105" t="s">
+      <c r="H104">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="105" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B105" t="s">
         <v>233</v>
       </c>
-      <c r="B105">
+      <c r="C105">
         <v>5</v>
       </c>
-      <c r="C105">
+      <c r="D105">
         <v>15</v>
       </c>
-      <c r="D105" t="s">
+      <c r="E105" t="s">
         <v>234</v>
       </c>
-      <c r="E105">
+      <c r="F105">
         <v>83</v>
       </c>
-      <c r="F105">
+      <c r="G105">
         <v>93</v>
       </c>
-      <c r="G105">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A106" t="s">
+      <c r="H105">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="106" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B106" t="s">
         <v>235</v>
       </c>
-      <c r="B106">
+      <c r="C106">
         <v>19</v>
       </c>
-      <c r="C106">
+      <c r="D106">
         <v>29</v>
       </c>
-      <c r="D106" t="s">
+      <c r="E106" t="s">
         <v>236</v>
       </c>
-      <c r="E106">
+      <c r="F106">
         <v>13</v>
       </c>
-      <c r="F106">
+      <c r="G106">
         <v>23</v>
       </c>
-      <c r="G106">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A107" t="s">
+      <c r="H106">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="107" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B107" t="s">
         <v>237</v>
       </c>
-      <c r="B107">
+      <c r="C107">
         <v>18</v>
       </c>
-      <c r="C107">
+      <c r="D107">
         <v>28</v>
       </c>
-      <c r="D107" t="s">
+      <c r="E107" t="s">
         <v>238</v>
       </c>
-      <c r="E107">
+      <c r="F107">
         <v>65</v>
       </c>
-      <c r="F107">
+      <c r="G107">
         <v>75</v>
       </c>
-      <c r="G107">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A108" t="s">
+      <c r="H107">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="108" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B108" t="s">
         <v>239</v>
       </c>
-      <c r="B108">
+      <c r="C108">
         <v>12</v>
       </c>
-      <c r="C108">
+      <c r="D108">
         <v>22</v>
       </c>
-      <c r="D108" t="s">
+      <c r="E108" t="s">
         <v>240</v>
       </c>
-      <c r="E108">
+      <c r="F108">
         <v>13</v>
       </c>
-      <c r="F108">
+      <c r="G108">
         <v>23</v>
       </c>
-      <c r="G108">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A109" t="s">
+      <c r="H108">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="109" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B109" t="s">
         <v>241</v>
       </c>
-      <c r="B109">
+      <c r="C109">
         <v>12</v>
       </c>
-      <c r="C109">
+      <c r="D109">
         <v>22</v>
       </c>
-      <c r="D109" t="s">
+      <c r="E109" t="s">
         <v>242</v>
       </c>
-      <c r="E109">
+      <c r="F109">
         <v>960</v>
       </c>
-      <c r="F109">
+      <c r="G109">
         <v>970</v>
       </c>
-      <c r="G109">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A110" t="s">
+      <c r="H109">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="110" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B110" t="s">
         <v>243</v>
       </c>
-      <c r="B110">
-        <v>11</v>
-      </c>
       <c r="C110">
+        <v>11</v>
+      </c>
+      <c r="D110">
         <v>21</v>
       </c>
-      <c r="D110" t="s">
+      <c r="E110" t="s">
         <v>244</v>
       </c>
-      <c r="E110">
+      <c r="F110">
         <v>7</v>
       </c>
-      <c r="F110">
+      <c r="G110">
         <v>17</v>
       </c>
-      <c r="G110">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A111" t="s">
+      <c r="H110">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="111" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B111" t="s">
         <v>245</v>
       </c>
-      <c r="B111">
+      <c r="C111">
         <v>5</v>
       </c>
-      <c r="C111">
+      <c r="D111">
         <v>15</v>
       </c>
-      <c r="D111" t="s">
+      <c r="E111" t="s">
         <v>246</v>
       </c>
-      <c r="E111">
+      <c r="F111">
         <v>31</v>
       </c>
-      <c r="F111">
+      <c r="G111">
         <v>41</v>
       </c>
-      <c r="G111">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A112" t="s">
+      <c r="H111">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="112" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B112" t="s">
         <v>247</v>
       </c>
-      <c r="B112">
-        <v>11</v>
-      </c>
       <c r="C112">
+        <v>11</v>
+      </c>
+      <c r="D112">
         <v>21</v>
       </c>
-      <c r="D112" t="s">
+      <c r="E112" t="s">
         <v>248</v>
       </c>
-      <c r="E112">
+      <c r="F112">
         <v>16</v>
       </c>
-      <c r="F112">
+      <c r="G112">
         <v>26</v>
       </c>
-      <c r="G112">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A113" t="s">
+      <c r="H112">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="113" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B113" t="s">
         <v>249</v>
       </c>
-      <c r="B113">
+      <c r="C113">
         <v>10</v>
       </c>
-      <c r="C113">
+      <c r="D113">
         <v>20</v>
       </c>
-      <c r="D113" t="s">
+      <c r="E113" t="s">
         <v>250</v>
       </c>
-      <c r="E113">
+      <c r="F113">
         <v>6</v>
       </c>
-      <c r="F113">
+      <c r="G113">
         <v>16</v>
       </c>
-      <c r="G113">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A114" t="s">
+      <c r="H113">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="114" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B114" t="s">
         <v>251</v>
       </c>
-      <c r="B114">
-        <v>11</v>
-      </c>
       <c r="C114">
+        <v>11</v>
+      </c>
+      <c r="D114">
         <v>21</v>
       </c>
-      <c r="D114" t="s">
+      <c r="E114" t="s">
         <v>252</v>
       </c>
-      <c r="E114">
+      <c r="F114">
         <v>18</v>
       </c>
-      <c r="F114">
+      <c r="G114">
         <v>28</v>
       </c>
-      <c r="G114">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A115" t="s">
+      <c r="H114">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="115" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B115" t="s">
         <v>253</v>
       </c>
-      <c r="B115">
+      <c r="C115">
         <v>4</v>
       </c>
-      <c r="C115">
+      <c r="D115">
         <v>14</v>
       </c>
-      <c r="D115" t="s">
+      <c r="E115" t="s">
         <v>254</v>
       </c>
-      <c r="E115">
+      <c r="F115">
         <v>5</v>
       </c>
-      <c r="F115">
+      <c r="G115">
         <v>15</v>
       </c>
-      <c r="G115">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A116" t="s">
+      <c r="H115">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="116" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B116" t="s">
         <v>255</v>
       </c>
-      <c r="B116">
+      <c r="C116">
         <v>1</v>
       </c>
-      <c r="C116">
-        <v>11</v>
-      </c>
-      <c r="D116" t="s">
+      <c r="D116">
+        <v>11</v>
+      </c>
+      <c r="E116" t="s">
         <v>256</v>
       </c>
-      <c r="E116">
+      <c r="F116">
         <v>114</v>
       </c>
-      <c r="F116">
+      <c r="G116">
         <v>124</v>
       </c>
-      <c r="G116">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A117" t="s">
+      <c r="H116">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="117" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B117" t="s">
         <v>257</v>
       </c>
-      <c r="B117">
+      <c r="C117">
         <v>7</v>
       </c>
-      <c r="C117">
+      <c r="D117">
         <v>17</v>
       </c>
-      <c r="D117" t="s">
+      <c r="E117" t="s">
         <v>258</v>
       </c>
-      <c r="E117">
+      <c r="F117">
         <v>18</v>
       </c>
-      <c r="F117">
+      <c r="G117">
         <v>28</v>
       </c>
-      <c r="G117">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A118" t="s">
+      <c r="H117">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="118" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B118" t="s">
         <v>259</v>
       </c>
-      <c r="B118">
+      <c r="C118">
         <v>5</v>
       </c>
-      <c r="C118">
+      <c r="D118">
         <v>15</v>
       </c>
-      <c r="D118" t="s">
+      <c r="E118" t="s">
         <v>260</v>
       </c>
-      <c r="E118">
+      <c r="F118">
         <v>16</v>
       </c>
-      <c r="F118">
+      <c r="G118">
         <v>26</v>
       </c>
-      <c r="G118">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A119" t="s">
+      <c r="H118">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="119" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B119" t="s">
         <v>261</v>
       </c>
-      <c r="B119">
+      <c r="C119">
         <v>18</v>
       </c>
-      <c r="C119">
+      <c r="D119">
         <v>28</v>
       </c>
-      <c r="D119" t="s">
+      <c r="E119" t="s">
         <v>262</v>
       </c>
-      <c r="E119">
+      <c r="F119">
         <v>22</v>
       </c>
-      <c r="F119">
+      <c r="G119">
         <v>32</v>
       </c>
-      <c r="G119">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A120" t="s">
+      <c r="H119">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="120" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B120" t="s">
         <v>263</v>
       </c>
-      <c r="B120">
+      <c r="C120">
         <v>40</v>
       </c>
-      <c r="C120">
+      <c r="D120">
         <v>50</v>
       </c>
-      <c r="D120" t="s">
+      <c r="E120" t="s">
         <v>264</v>
       </c>
-      <c r="E120">
+      <c r="F120">
         <v>69</v>
       </c>
-      <c r="F120">
+      <c r="G120">
         <v>79</v>
       </c>
-      <c r="G120">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A121" t="s">
+      <c r="H120">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="121" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B121" t="s">
         <v>265</v>
       </c>
-      <c r="B121">
+      <c r="C121">
         <v>74</v>
       </c>
-      <c r="C121">
+      <c r="D121">
         <v>84</v>
       </c>
-      <c r="D121" t="s">
+      <c r="E121" t="s">
         <v>266</v>
       </c>
-      <c r="E121">
+      <c r="F121">
         <v>18</v>
       </c>
-      <c r="F121">
+      <c r="G121">
         <v>28</v>
       </c>
-      <c r="G121">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A122" t="s">
+      <c r="H121">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="122" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B122" t="s">
         <v>267</v>
       </c>
-      <c r="B122">
+      <c r="C122">
         <v>8</v>
       </c>
-      <c r="C122">
+      <c r="D122">
         <v>18</v>
       </c>
-      <c r="D122" t="s">
+      <c r="E122" t="s">
         <v>268</v>
       </c>
-      <c r="E122">
+      <c r="F122">
         <v>26</v>
       </c>
-      <c r="F122">
+      <c r="G122">
         <v>36</v>
       </c>
-      <c r="G122">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A123" t="s">
+      <c r="H122">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="123" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B123" t="s">
         <v>269</v>
       </c>
-      <c r="B123">
+      <c r="C123">
         <v>6</v>
       </c>
-      <c r="C123">
+      <c r="D123">
         <v>16</v>
       </c>
-      <c r="D123" t="s">
+      <c r="E123" t="s">
         <v>270</v>
       </c>
-      <c r="E123">
+      <c r="F123">
         <v>5</v>
       </c>
-      <c r="F123">
+      <c r="G123">
         <v>15</v>
       </c>
-      <c r="G123">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A124" t="s">
+      <c r="H123">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="124" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B124" t="s">
         <v>271</v>
       </c>
-      <c r="B124">
+      <c r="C124">
         <v>109</v>
       </c>
-      <c r="C124">
+      <c r="D124">
         <v>119</v>
       </c>
-      <c r="D124" t="s">
+      <c r="E124" t="s">
         <v>272</v>
       </c>
-      <c r="E124">
+      <c r="F124">
         <v>33</v>
       </c>
-      <c r="F124">
+      <c r="G124">
         <v>43</v>
       </c>
-      <c r="G124">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A125" t="s">
+      <c r="H124">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="125" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B125" t="s">
         <v>273</v>
       </c>
-      <c r="B125">
-        <v>11</v>
-      </c>
       <c r="C125">
+        <v>11</v>
+      </c>
+      <c r="D125">
         <v>21</v>
       </c>
-      <c r="D125" t="s">
+      <c r="E125" t="s">
         <v>274</v>
       </c>
-      <c r="E125">
+      <c r="F125">
         <v>24</v>
       </c>
-      <c r="F125">
+      <c r="G125">
         <v>34</v>
       </c>
-      <c r="G125">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A126" t="s">
+      <c r="H125">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="126" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B126" t="s">
         <v>275</v>
       </c>
-      <c r="B126">
+      <c r="C126">
         <v>1</v>
       </c>
-      <c r="C126">
-        <v>11</v>
-      </c>
-      <c r="D126" t="s">
+      <c r="D126">
+        <v>11</v>
+      </c>
+      <c r="E126" t="s">
         <v>276</v>
       </c>
-      <c r="E126">
+      <c r="F126">
         <v>4</v>
       </c>
-      <c r="F126">
+      <c r="G126">
         <v>14</v>
       </c>
-      <c r="G126">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A127" t="s">
+      <c r="H126">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="127" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B127" t="s">
         <v>277</v>
       </c>
-      <c r="B127">
+      <c r="C127">
         <v>16</v>
       </c>
-      <c r="C127">
+      <c r="D127">
         <v>26</v>
       </c>
-      <c r="D127" t="s">
+      <c r="E127" t="s">
         <v>278</v>
       </c>
-      <c r="E127">
+      <c r="F127">
         <v>28</v>
       </c>
-      <c r="F127">
+      <c r="G127">
         <v>38</v>
       </c>
-      <c r="G127">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A128" t="s">
+      <c r="H127">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="128" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B128" t="s">
         <v>279</v>
       </c>
-      <c r="B128">
+      <c r="C128">
         <v>23</v>
       </c>
-      <c r="C128">
+      <c r="D128">
         <v>33</v>
       </c>
-      <c r="D128" t="s">
+      <c r="E128" t="s">
         <v>280</v>
       </c>
-      <c r="E128">
+      <c r="F128">
         <v>18</v>
       </c>
-      <c r="F128">
+      <c r="G128">
         <v>28</v>
       </c>
-      <c r="G128">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A129" t="s">
+      <c r="H128">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="129" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B129" t="s">
         <v>281</v>
       </c>
-      <c r="B129">
+      <c r="C129">
         <v>5</v>
       </c>
-      <c r="C129">
+      <c r="D129">
         <v>15</v>
       </c>
-      <c r="D129" t="s">
+      <c r="E129" t="s">
         <v>282</v>
       </c>
-      <c r="E129">
+      <c r="F129">
         <v>18</v>
       </c>
-      <c r="F129">
+      <c r="G129">
         <v>28</v>
       </c>
-      <c r="G129">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A130" t="s">
+      <c r="H129">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="130" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B130" t="s">
         <v>283</v>
       </c>
-      <c r="B130">
+      <c r="C130">
         <v>13</v>
       </c>
-      <c r="C130">
+      <c r="D130">
         <v>23</v>
       </c>
-      <c r="D130" t="s">
+      <c r="E130" t="s">
         <v>284</v>
       </c>
-      <c r="E130">
+      <c r="F130">
         <v>14</v>
       </c>
-      <c r="F130">
+      <c r="G130">
         <v>24</v>
       </c>
-      <c r="G130">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A131" t="s">
+      <c r="H130">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="131" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B131" t="s">
         <v>285</v>
       </c>
-      <c r="B131">
+      <c r="C131">
         <v>61</v>
       </c>
-      <c r="C131">
+      <c r="D131">
         <v>71</v>
       </c>
-      <c r="D131" t="s">
+      <c r="E131" t="s">
         <v>286</v>
       </c>
-      <c r="E131">
+      <c r="F131">
         <v>363</v>
       </c>
-      <c r="F131">
+      <c r="G131">
         <v>373</v>
       </c>
-      <c r="G131">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A132" t="s">
+      <c r="H131">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="132" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B132" t="s">
         <v>287</v>
       </c>
-      <c r="B132">
+      <c r="C132">
         <v>3</v>
       </c>
-      <c r="C132">
+      <c r="D132">
         <v>13</v>
       </c>
-      <c r="D132" t="s">
+      <c r="E132" t="s">
         <v>288</v>
       </c>
-      <c r="E132">
+      <c r="F132">
         <v>10</v>
       </c>
-      <c r="F132">
+      <c r="G132">
         <v>20</v>
       </c>
-      <c r="G132">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A133" t="s">
+      <c r="H132">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="133" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B133" t="s">
         <v>289</v>
       </c>
-      <c r="B133">
+      <c r="C133">
         <v>5</v>
       </c>
-      <c r="C133">
+      <c r="D133">
         <v>15</v>
       </c>
-      <c r="D133" t="s">
+      <c r="E133" t="s">
         <v>290</v>
       </c>
-      <c r="E133">
+      <c r="F133">
         <v>32</v>
       </c>
-      <c r="F133">
+      <c r="G133">
         <v>42</v>
       </c>
-      <c r="G133">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A134" t="s">
+      <c r="H133">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="134" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B134" t="s">
         <v>291</v>
       </c>
-      <c r="B134">
+      <c r="C134">
         <v>46</v>
       </c>
-      <c r="C134">
+      <c r="D134">
         <v>56</v>
       </c>
-      <c r="D134" t="s">
+      <c r="E134" t="s">
         <v>292</v>
       </c>
-      <c r="E134">
+      <c r="F134">
         <v>16</v>
       </c>
-      <c r="F134">
+      <c r="G134">
         <v>26</v>
       </c>
-      <c r="G134">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A135" t="s">
+      <c r="H134">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="135" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B135" t="s">
         <v>293</v>
       </c>
-      <c r="B135">
+      <c r="C135">
         <v>5</v>
       </c>
-      <c r="C135">
+      <c r="D135">
         <v>15</v>
       </c>
-      <c r="D135" t="s">
+      <c r="E135" t="s">
         <v>294</v>
       </c>
-      <c r="E135">
+      <c r="F135">
         <v>27</v>
       </c>
-      <c r="F135">
+      <c r="G135">
         <v>37</v>
       </c>
-      <c r="G135">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A136" t="s">
+      <c r="H135">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="136" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B136" t="s">
         <v>295</v>
       </c>
-      <c r="B136">
+      <c r="C136">
         <v>18</v>
       </c>
-      <c r="C136">
+      <c r="D136">
         <v>28</v>
       </c>
-      <c r="D136" t="s">
+      <c r="E136" t="s">
         <v>296</v>
       </c>
-      <c r="E136">
+      <c r="F136">
         <v>22</v>
       </c>
-      <c r="F136">
+      <c r="G136">
         <v>32</v>
       </c>
-      <c r="G136">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A137" t="s">
+      <c r="H136">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="137" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B137" t="s">
         <v>297</v>
       </c>
-      <c r="B137">
+      <c r="C137">
         <v>28</v>
       </c>
-      <c r="C137">
+      <c r="D137">
         <v>38</v>
       </c>
-      <c r="D137" t="s">
+      <c r="E137" t="s">
         <v>298</v>
       </c>
-      <c r="E137">
+      <c r="F137">
         <v>47</v>
       </c>
-      <c r="F137">
+      <c r="G137">
         <v>57</v>
       </c>
-      <c r="G137">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A138" t="s">
+      <c r="H137">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="138" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B138" t="s">
         <v>299</v>
       </c>
-      <c r="B138">
+      <c r="C138">
         <v>216</v>
       </c>
-      <c r="C138">
+      <c r="D138">
         <v>226</v>
       </c>
-      <c r="D138" t="s">
+      <c r="E138" t="s">
         <v>300</v>
       </c>
-      <c r="E138">
+      <c r="F138">
         <v>4</v>
       </c>
-      <c r="F138">
+      <c r="G138">
         <v>14</v>
       </c>
-      <c r="G138">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A139" t="s">
+      <c r="H138">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="139" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B139" t="s">
         <v>301</v>
       </c>
-      <c r="B139">
+      <c r="C139">
         <v>38</v>
       </c>
-      <c r="C139">
+      <c r="D139">
         <v>48</v>
       </c>
-      <c r="D139" t="s">
+      <c r="E139" t="s">
         <v>302</v>
       </c>
-      <c r="E139">
+      <c r="F139">
         <v>28</v>
       </c>
-      <c r="F139">
+      <c r="G139">
         <v>38</v>
       </c>
-      <c r="G139">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A140" t="s">
+      <c r="H139">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="140" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B140" t="s">
         <v>303</v>
       </c>
-      <c r="B140">
+      <c r="C140">
         <v>8</v>
       </c>
-      <c r="C140">
+      <c r="D140">
         <v>18</v>
       </c>
-      <c r="D140" t="s">
+      <c r="E140" t="s">
         <v>304</v>
       </c>
-      <c r="E140">
+      <c r="F140">
         <v>21</v>
       </c>
-      <c r="F140">
+      <c r="G140">
         <v>31</v>
       </c>
-      <c r="G140">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A141" t="s">
+      <c r="H140">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="141" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B141" t="s">
         <v>305</v>
       </c>
-      <c r="B141">
+      <c r="C141">
         <v>17</v>
       </c>
-      <c r="C141">
+      <c r="D141">
         <v>27</v>
       </c>
-      <c r="D141" t="s">
+      <c r="E141" t="s">
         <v>306</v>
       </c>
-      <c r="E141">
+      <c r="F141">
         <v>23</v>
       </c>
-      <c r="F141">
+      <c r="G141">
         <v>33</v>
       </c>
-      <c r="G141">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A142" t="s">
+      <c r="H141">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="142" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B142" t="s">
         <v>307</v>
       </c>
-      <c r="B142">
+      <c r="C142">
         <v>19</v>
       </c>
-      <c r="C142">
+      <c r="D142">
         <v>29</v>
       </c>
-      <c r="D142" t="s">
+      <c r="E142" t="s">
         <v>308</v>
       </c>
-      <c r="E142">
+      <c r="F142">
         <v>23</v>
       </c>
-      <c r="F142">
+      <c r="G142">
         <v>33</v>
       </c>
-      <c r="G142">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A143" t="s">
+      <c r="H142">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="143" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B143" t="s">
         <v>309</v>
       </c>
-      <c r="B143">
+      <c r="C143">
         <v>13</v>
       </c>
-      <c r="C143">
+      <c r="D143">
         <v>23</v>
       </c>
-      <c r="D143" t="s">
+      <c r="E143" t="s">
         <v>310</v>
       </c>
-      <c r="E143">
+      <c r="F143">
         <v>36</v>
       </c>
-      <c r="F143">
+      <c r="G143">
         <v>46</v>
       </c>
-      <c r="G143">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A144" t="s">
+      <c r="H143">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="144" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B144" t="s">
         <v>311</v>
       </c>
-      <c r="B144">
+      <c r="C144">
         <v>4</v>
       </c>
-      <c r="C144">
+      <c r="D144">
         <v>14</v>
       </c>
-      <c r="D144" t="s">
+      <c r="E144" t="s">
         <v>312</v>
       </c>
-      <c r="E144">
+      <c r="F144">
         <v>243</v>
       </c>
-      <c r="F144">
+      <c r="G144">
         <v>253</v>
       </c>
-      <c r="G144">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A145" t="s">
+      <c r="H144">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="145" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B145" t="s">
         <v>313</v>
       </c>
-      <c r="B145">
+      <c r="C145">
         <v>5</v>
       </c>
-      <c r="C145">
+      <c r="D145">
         <v>15</v>
       </c>
-      <c r="D145" t="s">
+      <c r="E145" t="s">
         <v>314</v>
       </c>
-      <c r="E145">
+      <c r="F145">
         <v>6</v>
       </c>
-      <c r="F145">
+      <c r="G145">
         <v>16</v>
       </c>
-      <c r="G145">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A146" t="s">
+      <c r="H145">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="146" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B146" t="s">
         <v>315</v>
       </c>
-      <c r="B146">
+      <c r="C146">
         <v>10</v>
       </c>
-      <c r="C146">
+      <c r="D146">
         <v>20</v>
       </c>
-      <c r="D146" t="s">
+      <c r="E146" t="s">
         <v>316</v>
       </c>
-      <c r="E146">
+      <c r="F146">
         <v>19</v>
       </c>
-      <c r="F146">
+      <c r="G146">
         <v>29</v>
       </c>
-      <c r="G146">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A147" t="s">
+      <c r="H146">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="147" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B147" t="s">
         <v>317</v>
       </c>
-      <c r="B147">
+      <c r="C147">
         <v>6</v>
       </c>
-      <c r="C147">
+      <c r="D147">
         <v>16</v>
       </c>
-      <c r="D147" t="s">
+      <c r="E147" t="s">
         <v>318</v>
       </c>
-      <c r="E147">
+      <c r="F147">
         <v>47</v>
       </c>
-      <c r="F147">
+      <c r="G147">
         <v>57</v>
       </c>
-      <c r="G147">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A148" t="s">
+      <c r="H147">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="148" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B148" t="s">
         <v>319</v>
       </c>
-      <c r="B148">
+      <c r="C148">
         <v>10</v>
       </c>
-      <c r="C148">
+      <c r="D148">
         <v>20</v>
       </c>
-      <c r="D148" t="s">
+      <c r="E148" t="s">
         <v>320</v>
       </c>
-      <c r="E148">
+      <c r="F148">
         <v>51</v>
       </c>
-      <c r="F148">
+      <c r="G148">
         <v>61</v>
       </c>
-      <c r="G148">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A149" t="s">
+      <c r="H148">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="149" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B149" t="s">
         <v>321</v>
       </c>
-      <c r="B149">
+      <c r="C149">
         <v>9</v>
       </c>
-      <c r="C149">
+      <c r="D149">
         <v>19</v>
       </c>
-      <c r="D149" t="s">
+      <c r="E149" t="s">
         <v>322</v>
       </c>
-      <c r="E149">
+      <c r="F149">
         <v>27</v>
       </c>
-      <c r="F149">
+      <c r="G149">
         <v>37</v>
       </c>
-      <c r="G149">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A150" t="s">
+      <c r="H149">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="150" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B150" t="s">
         <v>323</v>
       </c>
-      <c r="B150">
+      <c r="C150">
         <v>7</v>
       </c>
-      <c r="C150">
+      <c r="D150">
         <v>17</v>
       </c>
-      <c r="D150" t="s">
+      <c r="E150" t="s">
         <v>324</v>
       </c>
-      <c r="E150">
+      <c r="F150">
         <v>12</v>
       </c>
-      <c r="F150">
+      <c r="G150">
         <v>22</v>
       </c>
-      <c r="G150">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A151" t="s">
+      <c r="H150">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="151" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B151" t="s">
         <v>325</v>
       </c>
-      <c r="B151">
+      <c r="C151">
         <v>6</v>
       </c>
-      <c r="C151">
+      <c r="D151">
         <v>16</v>
       </c>
-      <c r="D151" t="s">
+      <c r="E151" t="s">
         <v>326</v>
       </c>
-      <c r="E151">
+      <c r="F151">
         <v>7</v>
       </c>
-      <c r="F151">
+      <c r="G151">
         <v>17</v>
       </c>
-      <c r="G151">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A152" t="s">
+      <c r="H151">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="152" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B152" t="s">
         <v>327</v>
       </c>
-      <c r="B152">
+      <c r="C152">
         <v>22</v>
       </c>
-      <c r="C152">
+      <c r="D152">
         <v>32</v>
       </c>
-      <c r="D152" t="s">
+      <c r="E152" t="s">
         <v>328</v>
       </c>
-      <c r="E152">
+      <c r="F152">
         <v>12</v>
       </c>
-      <c r="F152">
+      <c r="G152">
         <v>22</v>
       </c>
-      <c r="G152">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A153" t="s">
+      <c r="H152">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="153" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B153" t="s">
         <v>329</v>
       </c>
-      <c r="B153">
+      <c r="C153">
         <v>4</v>
       </c>
-      <c r="C153">
+      <c r="D153">
         <v>14</v>
       </c>
-      <c r="D153" t="s">
+      <c r="E153" t="s">
         <v>330</v>
       </c>
-      <c r="E153">
+      <c r="F153">
         <v>7</v>
       </c>
-      <c r="F153">
+      <c r="G153">
         <v>17</v>
       </c>
-      <c r="G153">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A154" t="s">
+      <c r="H153">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="154" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B154" t="s">
         <v>331</v>
       </c>
-      <c r="B154">
+      <c r="C154">
         <v>5</v>
       </c>
-      <c r="C154">
+      <c r="D154">
         <v>15</v>
       </c>
-      <c r="D154" t="s">
+      <c r="E154" t="s">
         <v>332</v>
       </c>
-      <c r="E154">
+      <c r="F154">
         <v>531</v>
       </c>
-      <c r="F154">
+      <c r="G154">
         <v>541</v>
       </c>
-      <c r="G154">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A155" t="s">
+      <c r="H154">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="155" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B155" t="s">
         <v>333</v>
       </c>
-      <c r="B155">
+      <c r="C155">
         <v>30</v>
       </c>
-      <c r="C155">
+      <c r="D155">
         <v>40</v>
       </c>
-      <c r="D155" t="s">
+      <c r="E155" t="s">
         <v>334</v>
       </c>
-      <c r="E155">
+      <c r="F155">
         <v>74</v>
       </c>
-      <c r="F155">
+      <c r="G155">
         <v>84</v>
       </c>
-      <c r="G155">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A156" t="s">
+      <c r="H155">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="156" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B156" t="s">
         <v>335</v>
       </c>
-      <c r="B156">
+      <c r="C156">
         <v>12</v>
       </c>
-      <c r="C156">
+      <c r="D156">
         <v>22</v>
       </c>
-      <c r="D156" t="s">
+      <c r="E156" t="s">
         <v>336</v>
       </c>
-      <c r="E156">
+      <c r="F156">
         <v>20</v>
       </c>
-      <c r="F156">
+      <c r="G156">
         <v>30</v>
       </c>
-      <c r="G156">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A157" t="s">
+      <c r="H156">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="157" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B157" t="s">
         <v>337</v>
       </c>
-      <c r="B157">
+      <c r="C157">
         <v>12</v>
       </c>
-      <c r="C157">
+      <c r="D157">
         <v>22</v>
       </c>
-      <c r="D157" t="s">
+      <c r="E157" t="s">
         <v>338</v>
       </c>
-      <c r="E157">
+      <c r="F157">
         <v>43</v>
       </c>
-      <c r="F157">
+      <c r="G157">
         <v>53</v>
       </c>
-      <c r="G157">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A158" t="s">
+      <c r="H157">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="158" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B158" t="s">
         <v>339</v>
       </c>
-      <c r="B158">
+      <c r="C158">
         <v>10</v>
       </c>
-      <c r="C158">
+      <c r="D158">
         <v>20</v>
       </c>
-      <c r="D158" t="s">
+      <c r="E158" t="s">
         <v>340</v>
       </c>
-      <c r="E158">
+      <c r="F158">
         <v>27</v>
       </c>
-      <c r="F158">
+      <c r="G158">
         <v>37</v>
       </c>
-      <c r="G158">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A159" t="s">
+      <c r="H158">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="159" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B159" t="s">
         <v>341</v>
       </c>
-      <c r="B159">
+      <c r="C159">
         <v>18</v>
       </c>
-      <c r="C159">
+      <c r="D159">
         <v>28</v>
       </c>
-      <c r="D159" t="s">
+      <c r="E159" t="s">
         <v>342</v>
       </c>
-      <c r="E159">
+      <c r="F159">
         <v>17</v>
       </c>
-      <c r="F159">
+      <c r="G159">
         <v>27</v>
       </c>
-      <c r="G159">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A160" t="s">
+      <c r="H159">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="160" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B160" t="s">
         <v>343</v>
       </c>
-      <c r="B160">
+      <c r="C160">
         <v>12</v>
       </c>
-      <c r="C160">
+      <c r="D160">
         <v>22</v>
       </c>
-      <c r="D160" t="s">
+      <c r="E160" t="s">
         <v>344</v>
       </c>
-      <c r="E160">
+      <c r="F160">
         <v>13</v>
       </c>
-      <c r="F160">
+      <c r="G160">
         <v>23</v>
       </c>
-      <c r="G160">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A161" t="s">
+      <c r="H160">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="161" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B161" t="s">
         <v>345</v>
       </c>
-      <c r="B161">
+      <c r="C161">
         <v>8</v>
       </c>
-      <c r="C161">
+      <c r="D161">
         <v>18</v>
       </c>
-      <c r="D161" t="s">
+      <c r="E161" t="s">
         <v>346</v>
       </c>
-      <c r="E161">
+      <c r="F161">
         <v>40</v>
       </c>
-      <c r="F161">
+      <c r="G161">
         <v>50</v>
       </c>
-      <c r="G161">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A162" t="s">
+      <c r="H161">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="162" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B162" t="s">
         <v>347</v>
       </c>
-      <c r="B162">
+      <c r="C162">
         <v>3</v>
       </c>
-      <c r="C162">
+      <c r="D162">
         <v>13</v>
       </c>
-      <c r="D162" t="s">
+      <c r="E162" t="s">
         <v>348</v>
       </c>
-      <c r="E162">
-        <v>11</v>
-      </c>
       <c r="F162">
+        <v>11</v>
+      </c>
+      <c r="G162">
         <v>21</v>
       </c>
-      <c r="G162">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A163" t="s">
+      <c r="H162">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="163" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B163" t="s">
         <v>349</v>
       </c>
-      <c r="B163">
+      <c r="C163">
         <v>8</v>
       </c>
-      <c r="C163">
+      <c r="D163">
         <v>18</v>
       </c>
-      <c r="D163" t="s">
+      <c r="E163" t="s">
         <v>350</v>
       </c>
-      <c r="E163">
+      <c r="F163">
         <v>84</v>
       </c>
-      <c r="F163">
+      <c r="G163">
         <v>94</v>
       </c>
-      <c r="G163">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A164" t="s">
+      <c r="H163">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="164" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B164" t="s">
         <v>351</v>
       </c>
-      <c r="B164">
+      <c r="C164">
         <v>7</v>
       </c>
-      <c r="C164">
+      <c r="D164">
         <v>17</v>
       </c>
-      <c r="D164" t="s">
+      <c r="E164" t="s">
         <v>352</v>
       </c>
-      <c r="E164">
+      <c r="F164">
         <v>14</v>
       </c>
-      <c r="F164">
+      <c r="G164">
         <v>24</v>
       </c>
-      <c r="G164">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A165" t="s">
+      <c r="H164">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="165" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B165" t="s">
         <v>353</v>
       </c>
-      <c r="B165">
+      <c r="C165">
         <v>12</v>
       </c>
-      <c r="C165">
+      <c r="D165">
         <v>22</v>
       </c>
-      <c r="D165" t="s">
+      <c r="E165" t="s">
         <v>354</v>
       </c>
-      <c r="E165">
+      <c r="F165">
         <v>7</v>
       </c>
-      <c r="F165">
+      <c r="G165">
         <v>17</v>
       </c>
-      <c r="G165">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A166" t="s">
+      <c r="H165">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="166" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B166" t="s">
         <v>355</v>
       </c>
-      <c r="B166">
+      <c r="C166">
         <v>130</v>
       </c>
-      <c r="C166">
+      <c r="D166">
         <v>140</v>
       </c>
-      <c r="D166" t="s">
+      <c r="E166" t="s">
         <v>356</v>
       </c>
-      <c r="E166">
+      <c r="F166">
         <v>13</v>
       </c>
-      <c r="F166">
+      <c r="G166">
         <v>23</v>
       </c>
-      <c r="G166">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A167" t="s">
+      <c r="H166">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="167" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B167" t="s">
         <v>357</v>
       </c>
-      <c r="B167">
+      <c r="C167">
         <v>46</v>
       </c>
-      <c r="C167">
+      <c r="D167">
         <v>56</v>
       </c>
-      <c r="D167" t="s">
+      <c r="E167" t="s">
         <v>358</v>
       </c>
-      <c r="E167">
+      <c r="F167">
         <v>28</v>
       </c>
-      <c r="F167">
+      <c r="G167">
         <v>38</v>
       </c>
-      <c r="G167">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A168" t="s">
+      <c r="H167">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="168" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B168" t="s">
         <v>359</v>
       </c>
-      <c r="B168">
+      <c r="C168">
         <v>16</v>
       </c>
-      <c r="C168">
+      <c r="D168">
         <v>26</v>
       </c>
-      <c r="D168" t="s">
+      <c r="E168" t="s">
         <v>360</v>
       </c>
-      <c r="E168">
+      <c r="F168">
         <v>41</v>
       </c>
-      <c r="F168">
+      <c r="G168">
         <v>51</v>
       </c>
-      <c r="G168">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A169" t="s">
+      <c r="H168">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="169" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B169" t="s">
         <v>361</v>
       </c>
-      <c r="B169">
+      <c r="C169">
         <v>1</v>
       </c>
-      <c r="C169">
-        <v>11</v>
-      </c>
-      <c r="D169" t="s">
+      <c r="D169">
+        <v>11</v>
+      </c>
+      <c r="E169" t="s">
         <v>362</v>
       </c>
-      <c r="E169">
+      <c r="F169">
         <v>813</v>
       </c>
-      <c r="F169">
+      <c r="G169">
         <v>823</v>
       </c>
-      <c r="G169">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A170" t="s">
+      <c r="H169">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="170" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B170" t="s">
         <v>363</v>
       </c>
-      <c r="B170">
+      <c r="C170">
         <v>4</v>
       </c>
-      <c r="C170">
+      <c r="D170">
         <v>14</v>
       </c>
-      <c r="D170" t="s">
+      <c r="E170" t="s">
         <v>364</v>
       </c>
-      <c r="E170">
+      <c r="F170">
         <v>28</v>
       </c>
-      <c r="F170">
+      <c r="G170">
         <v>38</v>
       </c>
-      <c r="G170">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A171" t="s">
+      <c r="H170">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="171" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B171" t="s">
         <v>365</v>
       </c>
-      <c r="B171">
+      <c r="C171">
         <v>5</v>
       </c>
-      <c r="C171">
+      <c r="D171">
         <v>15</v>
       </c>
-      <c r="D171" t="s">
+      <c r="E171" t="s">
         <v>366</v>
       </c>
-      <c r="E171">
+      <c r="F171">
         <v>7</v>
       </c>
-      <c r="F171">
+      <c r="G171">
         <v>17</v>
       </c>
-      <c r="G171">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A172" t="s">
+      <c r="H171">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="172" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B172" t="s">
         <v>367</v>
       </c>
-      <c r="B172">
+      <c r="C172">
         <v>1</v>
       </c>
-      <c r="C172">
-        <v>11</v>
-      </c>
-      <c r="D172" t="s">
+      <c r="D172">
+        <v>11</v>
+      </c>
+      <c r="E172" t="s">
         <v>368</v>
       </c>
-      <c r="E172">
+      <c r="F172">
         <v>19</v>
       </c>
-      <c r="F172">
+      <c r="G172">
         <v>29</v>
       </c>
-      <c r="G172">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A173" t="s">
+      <c r="H172">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="173" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B173" t="s">
         <v>369</v>
       </c>
-      <c r="B173">
+      <c r="C173">
         <v>48</v>
       </c>
-      <c r="C173">
+      <c r="D173">
         <v>58</v>
       </c>
-      <c r="D173" t="s">
+      <c r="E173" t="s">
         <v>370</v>
       </c>
-      <c r="E173">
+      <c r="F173">
         <v>21</v>
       </c>
-      <c r="F173">
+      <c r="G173">
         <v>31</v>
       </c>
-      <c r="G173">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A174" t="s">
+      <c r="H173">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="174" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B174" t="s">
         <v>371</v>
       </c>
-      <c r="B174">
+      <c r="C174">
         <v>1</v>
       </c>
-      <c r="C174">
-        <v>11</v>
-      </c>
-      <c r="D174" t="s">
+      <c r="D174">
+        <v>11</v>
+      </c>
+      <c r="E174" t="s">
         <v>372</v>
       </c>
-      <c r="E174">
+      <c r="F174">
         <v>163</v>
       </c>
-      <c r="F174">
+      <c r="G174">
         <v>173</v>
       </c>
-      <c r="G174">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A175" t="s">
+      <c r="H174">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="175" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B175" t="s">
         <v>373</v>
       </c>
-      <c r="B175">
+      <c r="C175">
         <v>21</v>
       </c>
-      <c r="C175">
+      <c r="D175">
         <v>31</v>
       </c>
-      <c r="D175" t="s">
+      <c r="E175" t="s">
         <v>374</v>
       </c>
-      <c r="E175">
+      <c r="F175">
         <v>6</v>
       </c>
-      <c r="F175">
+      <c r="G175">
         <v>16</v>
       </c>
-      <c r="G175">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A176" t="s">
+      <c r="H175">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="176" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B176" t="s">
         <v>375</v>
       </c>
-      <c r="B176">
+      <c r="C176">
         <v>12</v>
       </c>
-      <c r="C176">
+      <c r="D176">
         <v>22</v>
       </c>
-      <c r="D176" t="s">
+      <c r="E176" t="s">
         <v>376</v>
       </c>
-      <c r="E176">
+      <c r="F176">
         <v>36</v>
       </c>
-      <c r="F176">
+      <c r="G176">
         <v>46</v>
       </c>
-      <c r="G176">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A177" t="s">
+      <c r="H176">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="177" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B177" t="s">
         <v>377</v>
       </c>
-      <c r="B177">
+      <c r="C177">
         <v>16</v>
       </c>
-      <c r="C177">
+      <c r="D177">
         <v>26</v>
       </c>
-      <c r="D177" t="s">
+      <c r="E177" t="s">
         <v>378</v>
       </c>
-      <c r="E177">
+      <c r="F177">
         <v>29</v>
       </c>
-      <c r="F177">
+      <c r="G177">
         <v>39</v>
       </c>
-      <c r="G177">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A178" t="s">
+      <c r="H177">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="178" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B178" t="s">
         <v>379</v>
       </c>
-      <c r="B178">
+      <c r="C178">
         <v>5</v>
       </c>
-      <c r="C178">
+      <c r="D178">
         <v>15</v>
       </c>
-      <c r="D178" t="s">
+      <c r="E178" t="s">
         <v>380</v>
       </c>
-      <c r="E178">
+      <c r="F178">
         <v>47</v>
       </c>
-      <c r="F178">
+      <c r="G178">
         <v>57</v>
       </c>
-      <c r="G178">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A179" t="s">
+      <c r="H178">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="179" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B179" t="s">
         <v>381</v>
       </c>
-      <c r="B179">
+      <c r="C179">
         <v>8</v>
       </c>
-      <c r="C179">
+      <c r="D179">
         <v>18</v>
       </c>
-      <c r="D179" t="s">
+      <c r="E179" t="s">
         <v>382</v>
       </c>
-      <c r="E179">
+      <c r="F179">
         <v>70</v>
       </c>
-      <c r="F179">
+      <c r="G179">
         <v>80</v>
       </c>
-      <c r="G179">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A180" t="s">
+      <c r="H179">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="180" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B180" t="s">
         <v>383</v>
       </c>
-      <c r="B180">
+      <c r="C180">
         <v>4</v>
       </c>
-      <c r="C180">
+      <c r="D180">
         <v>14</v>
       </c>
-      <c r="D180" t="s">
+      <c r="E180" t="s">
         <v>384</v>
       </c>
-      <c r="E180">
+      <c r="F180">
         <v>34</v>
       </c>
-      <c r="F180">
+      <c r="G180">
         <v>44</v>
       </c>
-      <c r="G180">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A181" t="s">
+      <c r="H180">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="181" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B181" t="s">
         <v>385</v>
       </c>
-      <c r="B181">
+      <c r="C181">
         <v>17</v>
       </c>
-      <c r="C181">
+      <c r="D181">
         <v>27</v>
       </c>
-      <c r="D181" t="s">
+      <c r="E181" t="s">
         <v>386</v>
       </c>
-      <c r="E181">
+      <c r="F181">
         <v>80</v>
       </c>
-      <c r="F181">
+      <c r="G181">
         <v>90</v>
       </c>
-      <c r="G181">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A182" t="s">
+      <c r="H181">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="182" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B182" t="s">
         <v>387</v>
       </c>
-      <c r="B182">
+      <c r="C182">
         <v>16</v>
       </c>
-      <c r="C182">
+      <c r="D182">
         <v>26</v>
       </c>
-      <c r="D182" t="s">
+      <c r="E182" t="s">
         <v>388</v>
       </c>
-      <c r="E182">
+      <c r="F182">
         <v>18</v>
       </c>
-      <c r="F182">
+      <c r="G182">
         <v>28</v>
       </c>
-      <c r="G182">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A183" t="s">
+      <c r="H182">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="183" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B183" t="s">
         <v>389</v>
       </c>
-      <c r="B183">
-        <v>11</v>
-      </c>
       <c r="C183">
+        <v>11</v>
+      </c>
+      <c r="D183">
         <v>21</v>
       </c>
-      <c r="D183" t="s">
+      <c r="E183" t="s">
         <v>390</v>
       </c>
-      <c r="E183">
+      <c r="F183">
         <v>28</v>
       </c>
-      <c r="F183">
+      <c r="G183">
         <v>38</v>
       </c>
-      <c r="G183">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A184" t="s">
+      <c r="H183">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="184" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B184" t="s">
         <v>391</v>
       </c>
-      <c r="B184">
+      <c r="C184">
         <v>7</v>
       </c>
-      <c r="C184">
+      <c r="D184">
         <v>17</v>
       </c>
-      <c r="D184" t="s">
+      <c r="E184" t="s">
         <v>392</v>
       </c>
-      <c r="E184">
+      <c r="F184">
         <v>93</v>
       </c>
-      <c r="F184">
+      <c r="G184">
         <v>103</v>
       </c>
-      <c r="G184">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A185" t="s">
+      <c r="H184">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="185" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B185" t="s">
         <v>393</v>
       </c>
-      <c r="B185">
+      <c r="C185">
         <v>29</v>
       </c>
-      <c r="C185">
+      <c r="D185">
         <v>39</v>
       </c>
-      <c r="D185" t="s">
+      <c r="E185" t="s">
         <v>394</v>
       </c>
-      <c r="E185">
+      <c r="F185">
         <v>17</v>
       </c>
-      <c r="F185">
+      <c r="G185">
         <v>27</v>
       </c>
-      <c r="G185">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A186" t="s">
+      <c r="H185">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="186" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B186" t="s">
         <v>395</v>
       </c>
-      <c r="B186">
+      <c r="C186">
         <v>90</v>
       </c>
-      <c r="C186">
+      <c r="D186">
         <v>100</v>
       </c>
-      <c r="D186" t="s">
+      <c r="E186" t="s">
         <v>396</v>
       </c>
-      <c r="E186">
+      <c r="F186">
         <v>30</v>
       </c>
-      <c r="F186">
+      <c r="G186">
         <v>40</v>
       </c>
-      <c r="G186">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A187" t="s">
+      <c r="H186">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="187" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B187" t="s">
         <v>397</v>
       </c>
-      <c r="B187">
+      <c r="C187">
         <v>24</v>
       </c>
-      <c r="C187">
+      <c r="D187">
         <v>34</v>
       </c>
-      <c r="D187" t="s">
+      <c r="E187" t="s">
         <v>398</v>
       </c>
-      <c r="E187">
-        <v>11</v>
-      </c>
       <c r="F187">
+        <v>11</v>
+      </c>
+      <c r="G187">
         <v>21</v>
       </c>
-      <c r="G187">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A188" t="s">
+      <c r="H187">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="188" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B188" t="s">
         <v>399</v>
       </c>
-      <c r="B188">
+      <c r="C188">
         <v>1</v>
       </c>
-      <c r="C188">
-        <v>11</v>
-      </c>
-      <c r="D188" t="s">
+      <c r="D188">
+        <v>11</v>
+      </c>
+      <c r="E188" t="s">
         <v>400</v>
       </c>
-      <c r="E188">
+      <c r="F188">
         <v>1</v>
       </c>
-      <c r="F188">
-        <v>11</v>
-      </c>
       <c r="G188">
         <v>11</v>
       </c>
-    </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A189" t="s">
+      <c r="H188">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="189" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B189" t="s">
         <v>401</v>
       </c>
-      <c r="B189">
+      <c r="C189">
         <v>6</v>
       </c>
-      <c r="C189">
+      <c r="D189">
         <v>16</v>
       </c>
-      <c r="D189" t="s">
+      <c r="E189" t="s">
         <v>402</v>
       </c>
-      <c r="E189">
+      <c r="F189">
         <v>6</v>
       </c>
-      <c r="F189">
+      <c r="G189">
         <v>16</v>
       </c>
-      <c r="G189">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A190" t="s">
+      <c r="H189">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="190" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B190" t="s">
         <v>403</v>
       </c>
-      <c r="B190">
-        <v>11</v>
-      </c>
       <c r="C190">
+        <v>11</v>
+      </c>
+      <c r="D190">
         <v>21</v>
       </c>
-      <c r="D190" t="s">
+      <c r="E190" t="s">
         <v>404</v>
       </c>
-      <c r="E190">
+      <c r="F190">
         <v>21</v>
       </c>
-      <c r="F190">
+      <c r="G190">
         <v>31</v>
       </c>
-      <c r="G190">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A191" t="s">
+      <c r="H190">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="191" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B191" t="s">
         <v>405</v>
       </c>
-      <c r="B191">
+      <c r="C191">
         <v>7</v>
       </c>
-      <c r="C191">
+      <c r="D191">
         <v>17</v>
       </c>
-      <c r="D191" t="s">
+      <c r="E191" t="s">
         <v>406</v>
       </c>
-      <c r="E191">
+      <c r="F191">
         <v>15</v>
       </c>
-      <c r="F191">
+      <c r="G191">
         <v>25</v>
       </c>
-      <c r="G191">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A192" t="s">
+      <c r="H191">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="192" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B192" t="s">
         <v>407</v>
       </c>
-      <c r="B192">
+      <c r="C192">
         <v>23</v>
       </c>
-      <c r="C192">
+      <c r="D192">
         <v>33</v>
       </c>
-      <c r="D192" t="s">
+      <c r="E192" t="s">
         <v>408</v>
       </c>
-      <c r="E192">
+      <c r="F192">
         <v>19</v>
       </c>
-      <c r="F192">
+      <c r="G192">
         <v>29</v>
       </c>
-      <c r="G192">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A193" t="s">
+      <c r="H192">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="193" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B193" t="s">
         <v>409</v>
       </c>
-      <c r="B193">
-        <v>11</v>
-      </c>
       <c r="C193">
+        <v>11</v>
+      </c>
+      <c r="D193">
         <v>21</v>
       </c>
-      <c r="D193" t="s">
+      <c r="E193" t="s">
         <v>410</v>
       </c>
-      <c r="E193">
+      <c r="F193">
         <v>382</v>
       </c>
-      <c r="F193">
+      <c r="G193">
         <v>392</v>
       </c>
-      <c r="G193">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A194" t="s">
+      <c r="H193">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="194" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B194" t="s">
         <v>411</v>
       </c>
-      <c r="B194">
+      <c r="C194">
         <v>20</v>
       </c>
-      <c r="C194">
+      <c r="D194">
         <v>30</v>
       </c>
-      <c r="D194" t="s">
+      <c r="E194" t="s">
         <v>412</v>
       </c>
-      <c r="E194">
+      <c r="F194">
         <v>14</v>
       </c>
-      <c r="F194">
+      <c r="G194">
         <v>24</v>
       </c>
-      <c r="G194">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A195" t="s">
+      <c r="H194">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="195" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B195" t="s">
         <v>413</v>
       </c>
-      <c r="B195">
+      <c r="C195">
         <v>4</v>
       </c>
-      <c r="C195">
+      <c r="D195">
         <v>14</v>
       </c>
-      <c r="D195" t="s">
+      <c r="E195" t="s">
         <v>414</v>
       </c>
-      <c r="E195">
-        <v>11</v>
-      </c>
       <c r="F195">
+        <v>11</v>
+      </c>
+      <c r="G195">
         <v>21</v>
       </c>
-      <c r="G195">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A196" t="s">
+      <c r="H195">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="196" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B196" t="s">
         <v>415</v>
       </c>
-      <c r="B196">
+      <c r="C196">
         <v>6</v>
       </c>
-      <c r="C196">
+      <c r="D196">
         <v>16</v>
       </c>
-      <c r="D196" t="s">
+      <c r="E196" t="s">
         <v>416</v>
       </c>
-      <c r="E196">
+      <c r="F196">
         <v>6</v>
       </c>
-      <c r="F196">
+      <c r="G196">
         <v>16</v>
       </c>
-      <c r="G196">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A197" t="s">
+      <c r="H196">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="197" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B197" t="s">
         <v>417</v>
       </c>
-      <c r="B197">
+      <c r="C197">
         <v>14</v>
       </c>
-      <c r="C197">
+      <c r="D197">
         <v>24</v>
       </c>
-      <c r="D197" t="s">
+      <c r="E197" t="s">
         <v>418</v>
       </c>
-      <c r="E197">
+      <c r="F197">
         <v>33</v>
       </c>
-      <c r="F197">
+      <c r="G197">
         <v>43</v>
       </c>
-      <c r="G197">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A198" t="s">
+      <c r="H197">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="198" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B198" t="s">
         <v>419</v>
       </c>
-      <c r="B198">
+      <c r="C198">
         <v>6</v>
       </c>
-      <c r="C198">
+      <c r="D198">
         <v>16</v>
       </c>
-      <c r="D198" t="s">
+      <c r="E198" t="s">
         <v>420</v>
       </c>
-      <c r="E198">
+      <c r="F198">
         <v>17</v>
       </c>
-      <c r="F198">
+      <c r="G198">
         <v>27</v>
       </c>
-      <c r="G198">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A199" t="s">
+      <c r="H198">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="199" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B199" t="s">
         <v>421</v>
       </c>
-      <c r="B199">
+      <c r="C199">
         <v>4</v>
       </c>
-      <c r="C199">
+      <c r="D199">
         <v>14</v>
       </c>
-      <c r="D199" t="s">
+      <c r="E199" t="s">
         <v>422</v>
       </c>
-      <c r="E199">
+      <c r="F199">
         <v>19</v>
       </c>
-      <c r="F199">
+      <c r="G199">
         <v>29</v>
       </c>
-      <c r="G199">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A200" t="s">
+      <c r="H199">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="200" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B200" t="s">
         <v>423</v>
       </c>
-      <c r="B200">
+      <c r="C200">
         <v>8</v>
       </c>
-      <c r="C200">
+      <c r="D200">
         <v>18</v>
       </c>
-      <c r="D200" t="s">
+      <c r="E200" t="s">
         <v>424</v>
       </c>
-      <c r="E200">
+      <c r="F200">
         <v>16</v>
       </c>
-      <c r="F200">
+      <c r="G200">
         <v>26</v>
       </c>
-      <c r="G200">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A201" t="s">
+      <c r="H200">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="201" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B201" t="s">
         <v>425</v>
       </c>
-      <c r="B201">
+      <c r="C201">
         <v>9</v>
       </c>
-      <c r="C201">
+      <c r="D201">
         <v>19</v>
       </c>
-      <c r="D201" t="s">
+      <c r="E201" t="s">
         <v>426</v>
       </c>
-      <c r="E201">
+      <c r="F201">
         <v>93</v>
       </c>
-      <c r="F201">
+      <c r="G201">
         <v>103</v>
       </c>
-      <c r="G201">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A202" t="s">
+      <c r="H201">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="202" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B202" t="s">
         <v>427</v>
       </c>
-      <c r="B202">
+      <c r="C202">
         <v>19</v>
       </c>
-      <c r="C202">
+      <c r="D202">
         <v>29</v>
       </c>
-      <c r="D202" t="s">
+      <c r="E202" t="s">
         <v>428</v>
       </c>
-      <c r="E202">
+      <c r="F202">
         <v>21</v>
       </c>
-      <c r="F202">
+      <c r="G202">
         <v>31</v>
       </c>
-      <c r="G202">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A203" t="s">
+      <c r="H202">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="203" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B203" t="s">
         <v>429</v>
       </c>
-      <c r="B203">
+      <c r="C203">
         <v>4</v>
       </c>
-      <c r="C203">
+      <c r="D203">
         <v>14</v>
       </c>
-      <c r="D203" t="s">
+      <c r="E203" t="s">
         <v>430</v>
       </c>
-      <c r="E203">
+      <c r="F203">
         <v>51</v>
       </c>
-      <c r="F203">
+      <c r="G203">
         <v>61</v>
       </c>
-      <c r="G203">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A204" t="s">
+      <c r="H203">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="204" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B204" t="s">
         <v>431</v>
       </c>
-      <c r="B204">
+      <c r="C204">
         <v>6</v>
       </c>
-      <c r="C204">
+      <c r="D204">
         <v>16</v>
       </c>
-      <c r="D204" t="s">
+      <c r="E204" t="s">
         <v>432</v>
       </c>
-      <c r="E204">
+      <c r="F204">
         <v>19</v>
       </c>
-      <c r="F204">
+      <c r="G204">
         <v>29</v>
       </c>
-      <c r="G204">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A205" t="s">
+      <c r="H204">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="205" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B205" t="s">
         <v>433</v>
       </c>
-      <c r="B205">
+      <c r="C205">
         <v>22</v>
       </c>
-      <c r="C205">
+      <c r="D205">
         <v>32</v>
       </c>
-      <c r="D205" t="s">
+      <c r="E205" t="s">
         <v>434</v>
       </c>
-      <c r="E205">
+      <c r="F205">
         <v>18</v>
       </c>
-      <c r="F205">
+      <c r="G205">
         <v>28</v>
       </c>
-      <c r="G205">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A206" t="s">
+      <c r="H205">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="206" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B206" t="s">
         <v>435</v>
       </c>
-      <c r="B206">
+      <c r="C206">
         <v>49</v>
       </c>
-      <c r="C206">
+      <c r="D206">
         <v>59</v>
       </c>
-      <c r="D206" t="s">
+      <c r="E206" t="s">
         <v>436</v>
       </c>
-      <c r="E206">
+      <c r="F206">
         <v>12</v>
       </c>
-      <c r="F206">
+      <c r="G206">
         <v>22</v>
       </c>
-      <c r="G206">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A207" t="s">
+      <c r="H206">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="207" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B207" t="s">
         <v>437</v>
       </c>
-      <c r="B207">
+      <c r="C207">
         <v>7</v>
       </c>
-      <c r="C207">
+      <c r="D207">
         <v>17</v>
       </c>
-      <c r="D207" t="s">
+      <c r="E207" t="s">
         <v>438</v>
       </c>
-      <c r="E207">
-        <v>11</v>
-      </c>
       <c r="F207">
+        <v>11</v>
+      </c>
+      <c r="G207">
         <v>21</v>
       </c>
-      <c r="G207">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A208" t="s">
+      <c r="H207">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="208" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B208" t="s">
         <v>439</v>
       </c>
-      <c r="B208">
-        <v>11</v>
-      </c>
       <c r="C208">
+        <v>11</v>
+      </c>
+      <c r="D208">
         <v>21</v>
       </c>
-      <c r="D208" t="s">
+      <c r="E208" t="s">
         <v>440</v>
       </c>
-      <c r="E208">
+      <c r="F208">
         <v>54</v>
       </c>
-      <c r="F208">
+      <c r="G208">
         <v>64</v>
       </c>
-      <c r="G208">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A209" t="s">
+      <c r="H208">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="209" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B209" t="s">
         <v>441</v>
       </c>
-      <c r="B209">
+      <c r="C209">
         <v>6</v>
       </c>
-      <c r="C209">
+      <c r="D209">
         <v>16</v>
       </c>
-      <c r="D209" t="s">
+      <c r="E209" t="s">
         <v>442</v>
       </c>
-      <c r="E209">
+      <c r="F209">
         <v>19</v>
       </c>
-      <c r="F209">
+      <c r="G209">
         <v>29</v>
       </c>
-      <c r="G209">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A210" t="s">
+      <c r="H209">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="210" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B210" t="s">
         <v>443</v>
       </c>
-      <c r="B210">
+      <c r="C210">
         <v>7</v>
       </c>
-      <c r="C210">
+      <c r="D210">
         <v>17</v>
       </c>
-      <c r="D210" t="s">
+      <c r="E210" t="s">
         <v>444</v>
       </c>
-      <c r="E210">
+      <c r="F210">
         <v>67</v>
       </c>
-      <c r="F210">
+      <c r="G210">
         <v>77</v>
       </c>
-      <c r="G210">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A211" t="s">
+      <c r="H210">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="211" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B211" t="s">
         <v>445</v>
       </c>
-      <c r="B211">
+      <c r="C211">
         <v>10</v>
       </c>
-      <c r="C211">
+      <c r="D211">
         <v>20</v>
       </c>
-      <c r="D211" t="s">
+      <c r="E211" t="s">
         <v>446</v>
       </c>
-      <c r="E211">
+      <c r="F211">
         <v>42</v>
       </c>
-      <c r="F211">
+      <c r="G211">
         <v>52</v>
       </c>
-      <c r="G211">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A212" t="s">
+      <c r="H211">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="212" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B212" t="s">
         <v>447</v>
       </c>
-      <c r="B212">
+      <c r="C212">
         <v>1</v>
       </c>
-      <c r="C212">
-        <v>11</v>
-      </c>
-      <c r="D212" t="s">
+      <c r="D212">
+        <v>11</v>
+      </c>
+      <c r="E212" t="s">
         <v>448</v>
       </c>
-      <c r="E212">
+      <c r="F212">
         <v>26</v>
       </c>
-      <c r="F212">
+      <c r="G212">
         <v>36</v>
       </c>
-      <c r="G212">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A213" t="s">
+      <c r="H212">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="213" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B213" t="s">
         <v>449</v>
       </c>
-      <c r="B213">
+      <c r="C213">
         <v>10</v>
       </c>
-      <c r="C213">
+      <c r="D213">
         <v>20</v>
       </c>
-      <c r="D213" t="s">
+      <c r="E213" t="s">
         <v>450</v>
       </c>
-      <c r="E213">
+      <c r="F213">
         <v>7</v>
       </c>
-      <c r="F213">
+      <c r="G213">
         <v>17</v>
       </c>
-      <c r="G213">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A214" t="s">
+      <c r="H213">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="214" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B214" t="s">
         <v>451</v>
       </c>
-      <c r="B214">
+      <c r="C214">
         <v>9</v>
       </c>
-      <c r="C214">
+      <c r="D214">
         <v>19</v>
       </c>
-      <c r="D214" t="s">
+      <c r="E214" t="s">
         <v>452</v>
       </c>
-      <c r="E214">
+      <c r="F214">
         <v>20</v>
       </c>
-      <c r="F214">
+      <c r="G214">
         <v>30</v>
       </c>
-      <c r="G214">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A215" t="s">
+      <c r="H214">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="215" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B215" t="s">
         <v>453</v>
       </c>
-      <c r="B215">
+      <c r="C215">
         <v>10</v>
       </c>
-      <c r="C215">
+      <c r="D215">
         <v>20</v>
       </c>
-      <c r="D215" t="s">
+      <c r="E215" t="s">
         <v>454</v>
       </c>
-      <c r="E215">
+      <c r="F215">
         <v>13</v>
       </c>
-      <c r="F215">
+      <c r="G215">
         <v>23</v>
       </c>
-      <c r="G215">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A216" t="s">
+      <c r="H215">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="216" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B216" t="s">
         <v>455</v>
       </c>
-      <c r="B216">
+      <c r="C216">
         <v>83</v>
       </c>
-      <c r="C216">
+      <c r="D216">
         <v>93</v>
       </c>
-      <c r="D216" t="s">
+      <c r="E216" t="s">
         <v>456</v>
       </c>
-      <c r="E216">
-        <v>11</v>
-      </c>
       <c r="F216">
+        <v>11</v>
+      </c>
+      <c r="G216">
         <v>21</v>
       </c>
-      <c r="G216">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A217" t="s">
+      <c r="H216">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="217" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B217" t="s">
         <v>457</v>
       </c>
-      <c r="B217">
+      <c r="C217">
         <v>4</v>
       </c>
-      <c r="C217">
+      <c r="D217">
         <v>14</v>
       </c>
-      <c r="D217" t="s">
+      <c r="E217" t="s">
         <v>458</v>
       </c>
-      <c r="E217">
+      <c r="F217">
         <v>27</v>
       </c>
-      <c r="F217">
+      <c r="G217">
         <v>37</v>
       </c>
-      <c r="G217">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A218" t="s">
+      <c r="H217">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="218" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B218" t="s">
         <v>459</v>
       </c>
-      <c r="B218">
+      <c r="C218">
         <v>23</v>
       </c>
-      <c r="C218">
+      <c r="D218">
         <v>33</v>
       </c>
-      <c r="D218" t="s">
+      <c r="E218" t="s">
         <v>460</v>
       </c>
-      <c r="E218">
+      <c r="F218">
         <v>14</v>
       </c>
-      <c r="F218">
+      <c r="G218">
         <v>24</v>
       </c>
-      <c r="G218">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A219" t="s">
+      <c r="H218">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="219" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B219" t="s">
         <v>461</v>
       </c>
-      <c r="B219">
+      <c r="C219">
         <v>14</v>
       </c>
-      <c r="C219">
+      <c r="D219">
         <v>24</v>
       </c>
-      <c r="D219" t="s">
+      <c r="E219" t="s">
         <v>462</v>
       </c>
-      <c r="E219">
+      <c r="F219">
         <v>12</v>
       </c>
-      <c r="F219">
+      <c r="G219">
         <v>22</v>
       </c>
-      <c r="G219">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A220" t="s">
+      <c r="H219">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="220" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B220" t="s">
         <v>463</v>
       </c>
-      <c r="B220">
+      <c r="C220">
         <v>34</v>
       </c>
-      <c r="C220">
+      <c r="D220">
         <v>44</v>
       </c>
-      <c r="D220" t="s">
+      <c r="E220" t="s">
         <v>464</v>
       </c>
-      <c r="E220">
+      <c r="F220">
         <v>10</v>
       </c>
-      <c r="F220">
+      <c r="G220">
         <v>20</v>
       </c>
-      <c r="G220">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A221" t="s">
+      <c r="H220">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="221" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B221" t="s">
         <v>465</v>
       </c>
-      <c r="B221">
+      <c r="C221">
         <v>4</v>
       </c>
-      <c r="C221">
+      <c r="D221">
         <v>14</v>
       </c>
-      <c r="D221" t="s">
+      <c r="E221" t="s">
         <v>466</v>
       </c>
-      <c r="E221">
+      <c r="F221">
         <v>28</v>
       </c>
-      <c r="F221">
+      <c r="G221">
         <v>38</v>
       </c>
-      <c r="G221">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A222" t="s">
+      <c r="H221">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="222" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B222" t="s">
         <v>467</v>
       </c>
-      <c r="B222">
+      <c r="C222">
         <v>17</v>
       </c>
-      <c r="C222">
+      <c r="D222">
         <v>27</v>
       </c>
-      <c r="D222" t="s">
+      <c r="E222" t="s">
         <v>468</v>
       </c>
-      <c r="E222">
+      <c r="F222">
         <v>12</v>
       </c>
-      <c r="F222">
+      <c r="G222">
         <v>22</v>
       </c>
-      <c r="G222">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A223" t="s">
+      <c r="H222">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="223" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B223" t="s">
         <v>469</v>
       </c>
-      <c r="B223">
+      <c r="C223">
         <v>7</v>
       </c>
-      <c r="C223">
+      <c r="D223">
         <v>17</v>
       </c>
-      <c r="D223" t="s">
+      <c r="E223" t="s">
         <v>470</v>
       </c>
-      <c r="E223">
-        <v>11</v>
-      </c>
       <c r="F223">
+        <v>11</v>
+      </c>
+      <c r="G223">
         <v>21</v>
       </c>
-      <c r="G223">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A224" t="s">
+      <c r="H223">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="224" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B224" t="s">
         <v>471</v>
       </c>
-      <c r="B224">
+      <c r="C224">
         <v>1</v>
       </c>
-      <c r="C224">
+      <c r="D224">
         <v>10</v>
       </c>
-      <c r="D224" t="s">
+      <c r="E224" t="s">
         <v>472</v>
       </c>
-      <c r="E224">
+      <c r="F224">
         <v>53</v>
       </c>
-      <c r="F224">
+      <c r="G224">
         <v>62</v>
       </c>
-      <c r="G224">
+      <c r="H224">
         <v>10</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A225" t="s">
+    <row r="225" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B225" t="s">
         <v>473</v>
       </c>
-      <c r="B225">
+      <c r="C225">
         <v>1</v>
       </c>
-      <c r="C225">
+      <c r="D225">
         <v>10</v>
       </c>
-      <c r="D225" t="s">
+      <c r="E225" t="s">
         <v>474</v>
       </c>
-      <c r="E225">
+      <c r="F225">
         <v>524</v>
       </c>
-      <c r="F225">
+      <c r="G225">
         <v>533</v>
       </c>
-      <c r="G225">
+      <c r="H225">
         <v>10</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A226" t="s">
+    <row r="226" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B226" t="s">
         <v>475</v>
       </c>
-      <c r="B226">
+      <c r="C226">
         <v>45</v>
       </c>
-      <c r="C226">
+      <c r="D226">
         <v>54</v>
       </c>
-      <c r="D226" t="s">
+      <c r="E226" t="s">
         <v>476</v>
       </c>
-      <c r="E226">
+      <c r="F226">
         <v>24</v>
       </c>
-      <c r="F226">
+      <c r="G226">
         <v>33</v>
       </c>
-      <c r="G226">
+      <c r="H226">
         <v>10</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A227" t="s">
+    <row r="227" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B227" t="s">
         <v>477</v>
       </c>
-      <c r="B227">
+      <c r="C227">
         <v>1</v>
       </c>
-      <c r="C227">
+      <c r="D227">
         <v>10</v>
       </c>
-      <c r="D227" t="s">
+      <c r="E227" t="s">
         <v>478</v>
       </c>
-      <c r="E227">
+      <c r="F227">
         <v>61</v>
       </c>
-      <c r="F227">
+      <c r="G227">
         <v>70</v>
       </c>
-      <c r="G227">
+      <c r="H227">
         <v>10</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A228" t="s">
+    <row r="228" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B228" t="s">
         <v>479</v>
       </c>
-      <c r="B228">
+      <c r="C228">
         <v>22</v>
       </c>
-      <c r="C228">
+      <c r="D228">
         <v>31</v>
       </c>
-      <c r="D228" t="s">
+      <c r="E228" t="s">
         <v>480</v>
       </c>
-      <c r="E228">
+      <c r="F228">
         <v>323</v>
       </c>
-      <c r="F228">
+      <c r="G228">
         <v>332</v>
       </c>
-      <c r="G228">
+      <c r="H228">
         <v>10</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A229" t="s">
+    <row r="229" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B229" t="s">
         <v>481</v>
       </c>
-      <c r="B229">
+      <c r="C229">
         <v>1</v>
       </c>
-      <c r="C229">
+      <c r="D229">
         <v>10</v>
       </c>
-      <c r="D229" t="s">
+      <c r="E229" t="s">
         <v>482</v>
       </c>
-      <c r="E229">
+      <c r="F229">
         <v>69</v>
       </c>
-      <c r="F229">
+      <c r="G229">
         <v>78</v>
       </c>
-      <c r="G229">
+      <c r="H229">
         <v>10</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A230" t="s">
+    <row r="230" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B230" t="s">
         <v>483</v>
       </c>
-      <c r="B230">
+      <c r="C230">
         <v>96</v>
       </c>
-      <c r="C230">
+      <c r="D230">
         <v>105</v>
       </c>
-      <c r="D230" t="s">
+      <c r="E230" t="s">
         <v>484</v>
       </c>
-      <c r="E230">
+      <c r="F230">
         <v>339</v>
       </c>
-      <c r="F230">
+      <c r="G230">
         <v>348</v>
       </c>
-      <c r="G230">
+      <c r="H230">
         <v>10</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A231" t="s">
+    <row r="231" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B231" t="s">
         <v>485</v>
       </c>
-      <c r="B231">
+      <c r="C231">
         <v>7</v>
       </c>
-      <c r="C231">
+      <c r="D231">
         <v>16</v>
       </c>
-      <c r="D231" t="s">
+      <c r="E231" t="s">
         <v>486</v>
       </c>
-      <c r="E231">
+      <c r="F231">
         <v>89</v>
       </c>
-      <c r="F231">
+      <c r="G231">
         <v>98</v>
       </c>
-      <c r="G231">
+      <c r="H231">
         <v>10</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A232" t="s">
+    <row r="232" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B232" t="s">
         <v>487</v>
       </c>
-      <c r="B232">
+      <c r="C232">
         <v>1</v>
       </c>
-      <c r="C232">
+      <c r="D232">
         <v>10</v>
       </c>
-      <c r="D232" t="s">
+      <c r="E232" t="s">
         <v>488</v>
       </c>
-      <c r="E232">
+      <c r="F232">
         <v>38</v>
       </c>
-      <c r="F232">
+      <c r="G232">
         <v>47</v>
       </c>
-      <c r="G232">
+      <c r="H232">
         <v>10</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A233" t="s">
+    <row r="233" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B233" t="s">
         <v>489</v>
       </c>
-      <c r="B233">
+      <c r="C233">
         <v>34</v>
       </c>
-      <c r="C233">
+      <c r="D233">
         <v>43</v>
       </c>
-      <c r="D233" t="s">
+      <c r="E233" t="s">
         <v>490</v>
       </c>
-      <c r="E233">
+      <c r="F233">
         <v>106</v>
       </c>
-      <c r="F233">
+      <c r="G233">
         <v>115</v>
       </c>
-      <c r="G233">
+      <c r="H233">
         <v>10</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A234" t="s">
+    <row r="234" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B234" t="s">
         <v>491</v>
       </c>
-      <c r="B234">
+      <c r="C234">
         <v>108</v>
       </c>
-      <c r="C234">
+      <c r="D234">
         <v>117</v>
       </c>
-      <c r="D234" t="s">
+      <c r="E234" t="s">
         <v>492</v>
       </c>
-      <c r="E234">
+      <c r="F234">
         <v>112</v>
       </c>
-      <c r="F234">
+      <c r="G234">
         <v>121</v>
       </c>
-      <c r="G234">
+      <c r="H234">
         <v>10</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A235" t="s">
+    <row r="235" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B235" t="s">
         <v>493</v>
       </c>
-      <c r="B235">
+      <c r="C235">
         <v>1</v>
       </c>
-      <c r="C235">
+      <c r="D235">
         <v>10</v>
       </c>
-      <c r="D235" t="s">
+      <c r="E235" t="s">
         <v>494</v>
       </c>
-      <c r="E235">
+      <c r="F235">
         <v>29</v>
       </c>
-      <c r="F235">
+      <c r="G235">
         <v>38</v>
       </c>
-      <c r="G235">
+      <c r="H235">
         <v>10</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A236" t="s">
+    <row r="236" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B236" t="s">
         <v>495</v>
       </c>
-      <c r="B236">
+      <c r="C236">
         <v>1</v>
       </c>
-      <c r="C236">
+      <c r="D236">
         <v>10</v>
       </c>
-      <c r="D236" t="s">
+      <c r="E236" t="s">
         <v>496</v>
       </c>
-      <c r="E236">
+      <c r="F236">
         <v>46</v>
       </c>
-      <c r="F236">
+      <c r="G236">
         <v>55</v>
       </c>
-      <c r="G236">
+      <c r="H236">
         <v>10</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A237" t="s">
+    <row r="237" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B237" t="s">
         <v>497</v>
       </c>
-      <c r="B237">
+      <c r="C237">
         <v>1</v>
       </c>
-      <c r="C237">
+      <c r="D237">
         <v>10</v>
       </c>
-      <c r="D237" t="s">
+      <c r="E237" t="s">
         <v>498</v>
       </c>
-      <c r="E237">
+      <c r="F237">
         <v>23</v>
       </c>
-      <c r="F237">
+      <c r="G237">
         <v>32</v>
       </c>
-      <c r="G237">
+      <c r="H237">
         <v>10</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A238" t="s">
+    <row r="238" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B238" t="s">
         <v>499</v>
       </c>
-      <c r="B238">
+      <c r="C238">
         <v>8</v>
       </c>
-      <c r="C238">
+      <c r="D238">
         <v>17</v>
       </c>
-      <c r="D238" t="s">
+      <c r="E238" t="s">
         <v>500</v>
       </c>
-      <c r="E238">
+      <c r="F238">
         <v>18</v>
       </c>
-      <c r="F238">
+      <c r="G238">
         <v>27</v>
       </c>
-      <c r="G238">
+      <c r="H238">
         <v>10</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A239" t="s">
+    <row r="239" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B239" t="s">
         <v>501</v>
       </c>
-      <c r="B239">
+      <c r="C239">
         <v>2</v>
       </c>
-      <c r="C239">
-        <v>11</v>
-      </c>
-      <c r="D239" t="s">
+      <c r="D239">
+        <v>11</v>
+      </c>
+      <c r="E239" t="s">
         <v>502</v>
       </c>
-      <c r="E239">
+      <c r="F239">
         <v>12</v>
       </c>
-      <c r="F239">
+      <c r="G239">
         <v>21</v>
       </c>
-      <c r="G239">
+      <c r="H239">
         <v>10</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A240" t="s">
+    <row r="240" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B240" t="s">
         <v>503</v>
       </c>
-      <c r="B240">
+      <c r="C240">
         <v>1</v>
       </c>
-      <c r="C240">
+      <c r="D240">
         <v>10</v>
       </c>
-      <c r="D240" t="s">
+      <c r="E240" t="s">
         <v>504</v>
       </c>
-      <c r="E240">
+      <c r="F240">
         <v>52</v>
       </c>
-      <c r="F240">
+      <c r="G240">
         <v>61</v>
       </c>
-      <c r="G240">
+      <c r="H240">
         <v>10</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A241" t="s">
+    <row r="241" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B241" t="s">
         <v>505</v>
       </c>
-      <c r="B241">
+      <c r="C241">
         <v>29</v>
       </c>
-      <c r="C241">
+      <c r="D241">
         <v>39</v>
       </c>
-      <c r="D241" t="s">
+      <c r="E241" t="s">
         <v>506</v>
       </c>
-      <c r="E241">
+      <c r="F241">
         <v>100</v>
       </c>
-      <c r="F241">
+      <c r="G241">
         <v>109</v>
       </c>
-      <c r="G241">
+      <c r="H241">
         <v>10</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A242" t="s">
+    <row r="242" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B242" t="s">
         <v>507</v>
       </c>
-      <c r="B242">
+      <c r="C242">
         <v>33</v>
       </c>
-      <c r="C242">
+      <c r="D242">
         <v>42</v>
       </c>
-      <c r="D242" t="s">
+      <c r="E242" t="s">
         <v>508</v>
       </c>
-      <c r="E242">
+      <c r="F242">
         <v>19</v>
       </c>
-      <c r="F242">
+      <c r="G242">
         <v>28</v>
       </c>
-      <c r="G242">
+      <c r="H242">
         <v>10</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A243" t="s">
+    <row r="243" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B243" t="s">
         <v>509</v>
       </c>
-      <c r="B243">
+      <c r="C243">
         <v>1</v>
       </c>
-      <c r="C243">
+      <c r="D243">
         <v>10</v>
       </c>
-      <c r="D243" t="s">
+      <c r="E243" t="s">
         <v>510</v>
       </c>
-      <c r="E243">
+      <c r="F243">
         <v>59</v>
       </c>
-      <c r="F243">
+      <c r="G243">
         <v>68</v>
       </c>
-      <c r="G243">
+      <c r="H243">
         <v>10</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A244" t="s">
+    <row r="244" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B244" t="s">
         <v>511</v>
       </c>
-      <c r="B244">
+      <c r="C244">
         <v>13</v>
       </c>
-      <c r="C244">
+      <c r="D244">
         <v>22</v>
       </c>
-      <c r="D244" t="s">
+      <c r="E244" t="s">
         <v>512</v>
       </c>
-      <c r="E244">
+      <c r="F244">
         <v>42</v>
       </c>
-      <c r="F244">
+      <c r="G244">
         <v>51</v>
       </c>
-      <c r="G244">
+      <c r="H244">
         <v>10</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A245" t="s">
+    <row r="245" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B245" t="s">
         <v>513</v>
       </c>
-      <c r="B245">
+      <c r="C245">
         <v>13</v>
       </c>
-      <c r="C245">
+      <c r="D245">
         <v>22</v>
       </c>
-      <c r="D245" t="s">
+      <c r="E245" t="s">
         <v>514</v>
       </c>
-      <c r="E245">
+      <c r="F245">
         <v>14</v>
       </c>
-      <c r="F245">
+      <c r="G245">
         <v>23</v>
       </c>
-      <c r="G245">
+      <c r="H245">
         <v>10</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A246" t="s">
+    <row r="246" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B246" t="s">
         <v>515</v>
       </c>
-      <c r="B246">
+      <c r="C246">
         <v>53</v>
       </c>
-      <c r="C246">
+      <c r="D246">
         <v>62</v>
       </c>
-      <c r="D246" t="s">
+      <c r="E246" t="s">
         <v>516</v>
       </c>
-      <c r="E246">
+      <c r="F246">
         <v>1253</v>
       </c>
-      <c r="F246">
+      <c r="G246">
         <v>1262</v>
       </c>
-      <c r="G246">
+      <c r="H246">
         <v>10</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A247" t="s">
+    <row r="247" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B247" t="s">
         <v>517</v>
       </c>
-      <c r="B247">
+      <c r="C247">
         <v>1</v>
       </c>
-      <c r="C247">
+      <c r="D247">
         <v>10</v>
       </c>
-      <c r="D247" t="s">
+      <c r="E247" t="s">
         <v>518</v>
       </c>
-      <c r="E247">
+      <c r="F247">
         <v>275</v>
       </c>
-      <c r="F247">
+      <c r="G247">
         <v>284</v>
       </c>
-      <c r="G247">
+      <c r="H247">
         <v>10</v>
       </c>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A248" t="s">
+    <row r="248" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B248" t="s">
         <v>519</v>
       </c>
-      <c r="B248">
+      <c r="C248">
         <v>58</v>
       </c>
-      <c r="C248">
+      <c r="D248">
         <v>67</v>
       </c>
-      <c r="D248" t="s">
+      <c r="E248" t="s">
         <v>520</v>
       </c>
-      <c r="E248">
+      <c r="F248">
         <v>39</v>
       </c>
-      <c r="F248">
+      <c r="G248">
         <v>48</v>
       </c>
-      <c r="G248">
+      <c r="H248">
         <v>10</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A249" t="s">
+    <row r="249" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B249" t="s">
         <v>521</v>
       </c>
-      <c r="B249">
+      <c r="C249">
         <v>1</v>
       </c>
-      <c r="C249">
+      <c r="D249">
         <v>10</v>
       </c>
-      <c r="D249" t="s">
+      <c r="E249" t="s">
         <v>522</v>
       </c>
-      <c r="E249">
+      <c r="F249">
         <v>96</v>
       </c>
-      <c r="F249">
+      <c r="G249">
         <v>105</v>
       </c>
-      <c r="G249">
+      <c r="H249">
         <v>10</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A250" t="s">
+    <row r="250" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B250" t="s">
         <v>523</v>
       </c>
-      <c r="B250">
+      <c r="C250">
         <v>9</v>
       </c>
-      <c r="C250">
+      <c r="D250">
         <v>18</v>
       </c>
-      <c r="D250" t="s">
+      <c r="E250" t="s">
         <v>524</v>
       </c>
-      <c r="E250">
+      <c r="F250">
         <v>8</v>
       </c>
-      <c r="F250">
+      <c r="G250">
         <v>17</v>
       </c>
-      <c r="G250">
+      <c r="H250">
         <v>10</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A251" t="s">
+    <row r="251" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B251" t="s">
         <v>525</v>
       </c>
-      <c r="B251">
+      <c r="C251">
         <v>1</v>
       </c>
-      <c r="C251">
+      <c r="D251">
         <v>10</v>
       </c>
-      <c r="D251" t="s">
+      <c r="E251" t="s">
         <v>526</v>
       </c>
-      <c r="E251">
+      <c r="F251">
         <v>77</v>
       </c>
-      <c r="F251">
+      <c r="G251">
         <v>86</v>
       </c>
-      <c r="G251">
+      <c r="H251">
         <v>10</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A252" t="s">
+    <row r="252" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B252" t="s">
         <v>527</v>
       </c>
-      <c r="B252">
+      <c r="C252">
         <v>39</v>
       </c>
-      <c r="C252">
+      <c r="D252">
         <v>48</v>
       </c>
-      <c r="D252" t="s">
+      <c r="E252" t="s">
         <v>528</v>
       </c>
-      <c r="E252">
+      <c r="F252">
         <v>17</v>
       </c>
-      <c r="F252">
+      <c r="G252">
         <v>26</v>
       </c>
-      <c r="G252">
+      <c r="H252">
         <v>10</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A253" t="s">
+    <row r="253" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B253" t="s">
         <v>529</v>
       </c>
-      <c r="B253">
+      <c r="C253">
         <v>8</v>
       </c>
-      <c r="C253">
+      <c r="D253">
         <v>17</v>
       </c>
-      <c r="D253" t="s">
+      <c r="E253" t="s">
         <v>530</v>
       </c>
-      <c r="E253">
+      <c r="F253">
         <v>10</v>
       </c>
-      <c r="F253">
+      <c r="G253">
         <v>19</v>
       </c>
-      <c r="G253">
+      <c r="H253">
         <v>10</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A254" t="s">
+    <row r="254" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B254" t="s">
         <v>531</v>
       </c>
-      <c r="B254">
+      <c r="C254">
         <v>4</v>
       </c>
-      <c r="C254">
+      <c r="D254">
         <v>13</v>
       </c>
-      <c r="D254" t="s">
+      <c r="E254" t="s">
         <v>532</v>
       </c>
-      <c r="E254">
+      <c r="F254">
         <v>201</v>
       </c>
-      <c r="F254">
+      <c r="G254">
         <v>211</v>
       </c>
-      <c r="G254">
+      <c r="H254">
         <v>10</v>
       </c>
     </row>
